--- a/benchmarktests/testdefinitions/Benchmarktest_traject 16-5.xlsx
+++ b/benchmarktests/testdefinitions/Benchmarktest_traject 16-5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F892E6B-BCDE-4A30-B91D-46531AF87B87}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1887AEA3-BC34-410E-BA2B-E9FBBC7B327D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="8" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="3510" yWindow="525" windowWidth="28800" windowHeight="15435" tabRatio="653" firstSheet="1" activeTab="8" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -2090,18 +2090,18 @@
       <c r="B12" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="31" t="str">
+      <c r="C12" s="31">
         <f>HTKW!C5</f>
-        <v>GR</v>
+        <v>2.8437656524269217E-2</v>
       </c>
       <c r="D12" s="26">
         <f>HTKW!C6</f>
         <v>2.8437656524269217E-2</v>
       </c>
       <c r="E12" s="49"/>
-      <c r="G12" s="1" t="e">
+      <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0.97156234347573078</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="1"/>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="K5" s="9" t="str">
         <f t="array" ref="K5">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B5,C5),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>+III</v>
       </c>
       <c r="L5" s="12" t="str">
         <f t="array" ref="L5">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B5,C5),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="K10" s="9" t="str">
         <f t="array" ref="K10">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B10,C10),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>+III</v>
       </c>
       <c r="L10" s="12" t="str">
         <f t="array" ref="L10">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B10,C10),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
@@ -3146,7 +3146,7 @@
   <dimension ref="B2:Y32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8902,7 +8902,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:K22"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8926,7 +8926,7 @@
         <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -9063,15 +9063,15 @@
         <v>NR</v>
       </c>
       <c r="M11" s="31">
-        <f t="shared" ref="M11:M22" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <f t="shared" ref="M11" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" ref="N11:N22" si="3">IF(J11="-",1,M11)</f>
+        <f t="shared" ref="N11" si="3">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" ref="O11:O22" si="4">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <f t="shared" ref="O11" si="4">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P11" s="10">
@@ -9079,16 +9079,16 @@
         <v>0</v>
       </c>
       <c r="Q11" s="9">
-        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0.1</v>
+        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R11" s="9">
-        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>5</v>
+        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
       </c>
       <c r="S11" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R11)</f>
-        <v>-I</v>
+        <v>+III</v>
       </c>
       <c r="T11" s="12" t="b">
         <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
@@ -9125,35 +9125,35 @@
         <v>ND</v>
       </c>
       <c r="M12" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="M12:M22" si="5">IF(AND(F12="Geen faalkans",H12="Nee"),1,1-J12)</f>
         <v>1</v>
       </c>
       <c r="N12" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="N12:N22" si="6">IF(J12="-",1,M12)</f>
         <v>1</v>
       </c>
       <c r="O12" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="O12:O22" si="7">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" ref="P12:P22" si="5">IF(J12="-",0,O12)</f>
+        <f t="shared" ref="P12:P22" si="8">IF(J12="-",0,O12)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="9">
-        <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>0</v>
       </c>
       <c r="R12" s="9">
-        <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>4</v>
+        <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
       </c>
       <c r="S12" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R12)</f>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="T12" s="12" t="b">
-        <f t="shared" ref="T12:T22" si="6">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
+        <f t="shared" ref="T12:T22" si="9">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -9188,38 +9188,38 @@
       </c>
       <c r="K13" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>-I</v>
+        <v>+III</v>
       </c>
       <c r="M13" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P13" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q13" s="9">
-        <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0.1</v>
+        <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R13" s="9">
-        <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>5</v>
+        <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
       </c>
       <c r="S13" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R13)</f>
-        <v>-I</v>
+        <v>+III</v>
       </c>
       <c r="T13" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9255,27 +9255,27 @@
         <v>-I</v>
       </c>
       <c r="M14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.99977199999999999</v>
       </c>
       <c r="N14" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.99977199999999999</v>
       </c>
       <c r="O14" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.2800000000000001E-4</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.2800000000000001E-4</v>
       </c>
       <c r="Q14" s="9">
-        <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>0.1</v>
       </c>
       <c r="R14" s="9">
-        <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>5</v>
       </c>
       <c r="S14" s="9" t="str">
@@ -9283,7 +9283,7 @@
         <v>-I</v>
       </c>
       <c r="T14" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9321,27 +9321,27 @@
         <v>-I</v>
       </c>
       <c r="M15" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.99673</v>
       </c>
       <c r="N15" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.99673</v>
       </c>
       <c r="O15" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.2699999999999999E-3</v>
       </c>
       <c r="P15" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.2699999999999999E-3</v>
       </c>
       <c r="Q15" s="9">
-        <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>0.1</v>
       </c>
       <c r="R15" s="9">
-        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>5</v>
       </c>
       <c r="S15" s="9" t="str">
@@ -9349,7 +9349,7 @@
         <v>-I</v>
       </c>
       <c r="T15" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9383,35 +9383,35 @@
         <v>NR</v>
       </c>
       <c r="M16" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O16" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P16" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q16" s="9">
-        <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0.1</v>
+        <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R16" s="9">
-        <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>5</v>
+        <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
       </c>
       <c r="S16" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
-        <v>-I</v>
+        <v>+III</v>
       </c>
       <c r="T16" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9445,35 +9445,35 @@
         <v>NR</v>
       </c>
       <c r="M17" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N17" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O17" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P17" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q17" s="9">
-        <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0.1</v>
+        <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R17" s="9">
-        <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>5</v>
+        <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
       </c>
       <c r="S17" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R17)</f>
-        <v>-I</v>
+        <v>+III</v>
       </c>
       <c r="T17" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9506,38 +9506,38 @@
       </c>
       <c r="K18" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>-I</v>
+        <v>+III</v>
       </c>
       <c r="M18" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N18" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O18" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P18" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q18" s="9">
-        <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0.1</v>
+        <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R18" s="9">
-        <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>5</v>
+        <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
       </c>
       <c r="S18" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
-        <v>-I</v>
+        <v>+III</v>
       </c>
       <c r="T18" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9573,35 +9573,35 @@
         <v>D</v>
       </c>
       <c r="M19" s="31" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="N19" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O19" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="P19" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q19" s="9">
-        <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>0</v>
       </c>
       <c r="R19" s="9">
-        <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>4</v>
+        <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
       </c>
       <c r="S19" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R19)</f>
-        <v>+0</v>
+        <v>+III</v>
       </c>
       <c r="T19" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -9629,7 +9629,7 @@
       </c>
       <c r="I20" s="26"/>
       <c r="J20" s="10">
-        <f t="shared" ref="J20:J22" si="7">IF($E20="Nee",0,IF(H20="Ja",IF(ISNUMBER(I20),I20,"-"),IF(ISNUMBER(G20),G20,"-")))</f>
+        <f t="shared" ref="J20:J22" si="10">IF($E20="Nee",0,IF(H20="Ja",IF(ISNUMBER(I20),I20,"-"),IF(ISNUMBER(G20),G20,"-")))</f>
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="K20" s="32" t="str">
@@ -9637,27 +9637,27 @@
         <v>-I</v>
       </c>
       <c r="M20" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.99999800000000005</v>
       </c>
       <c r="N20" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.99999800000000005</v>
       </c>
       <c r="O20" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="P20" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="Q20" s="9">
-        <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>0.1</v>
       </c>
       <c r="R20" s="9">
-        <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>5</v>
       </c>
       <c r="S20" s="9" t="str">
@@ -9665,7 +9665,7 @@
         <v>-I</v>
       </c>
       <c r="T20" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9695,7 +9695,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J21" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K21" s="32" t="str">
@@ -9703,27 +9703,27 @@
         <v>-I</v>
       </c>
       <c r="M21" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.99950000000000006</v>
       </c>
       <c r="N21" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.99950000000000006</v>
       </c>
       <c r="O21" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="P21" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="Q21" s="9">
-        <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>0.1</v>
       </c>
       <c r="R21" s="9">
-        <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>5</v>
       </c>
       <c r="S21" s="9" t="str">
@@ -9731,7 +9731,7 @@
         <v>-I</v>
       </c>
       <c r="T21" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9759,7 +9759,7 @@
       </c>
       <c r="I22" s="26"/>
       <c r="J22" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.0000000000000001E-9</v>
       </c>
       <c r="K22" s="32" t="str">
@@ -9767,27 +9767,27 @@
         <v>-I</v>
       </c>
       <c r="M22" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.99999999799999995</v>
       </c>
       <c r="N22" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.99999999799999995</v>
       </c>
       <c r="O22" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000001E-9</v>
       </c>
       <c r="P22" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000001E-9</v>
       </c>
       <c r="Q22" s="9">
-        <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>0.1</v>
       </c>
       <c r="R22" s="9">
-        <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>5</v>
       </c>
       <c r="S22" s="9" t="str">
@@ -9795,7 +9795,7 @@
         <v>-I</v>
       </c>
       <c r="T22" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10042,7 +10042,7 @@
   <dimension ref="B2:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10089,9 +10089,9 @@
       <c r="B5" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="26" t="str">
+      <c r="C5" s="26">
         <f>IFERROR(MIN(1-PRODUCT(M11:M27),MAX(O11:O27)),"GR")</f>
-        <v>GR</v>
+        <v>2.8437656524269217E-2</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
@@ -10187,7 +10187,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="3" t="s">
@@ -10202,17 +10202,17 @@
         <f t="shared" ref="K11:K22" si="1">IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
         <v>ND</v>
       </c>
-      <c r="M11" s="31" t="e">
+      <c r="M11" s="31">
         <f t="shared" ref="M11:M12" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="N11" s="10">
         <f t="shared" ref="N11:N12" si="3">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
-      <c r="O11" s="10" t="e">
+      <c r="O11" s="10">
         <f>IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="P11" s="10">
         <f>IF(J11="-",0,O11)</f>
@@ -11148,7 +11148,7 @@
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{66D3252B-4C33-455B-8361-35393CCA4B04}">
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>

--- a/benchmarktests/testdefinitions/Benchmarktest_traject 16-5.xlsx
+++ b/benchmarktests/testdefinitions/Benchmarktest_traject 16-5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1887AEA3-BC34-410E-BA2B-E9FBBC7B327D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53F4665-9339-48BC-9D09-A0489BF5C582}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="525" windowWidth="28800" windowHeight="15435" tabRatio="653" firstSheet="1" activeTab="8" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="9" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="111">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -1900,8 +1900,8 @@
   </sheetPr>
   <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,7 +1916,7 @@
         <v>76</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>IFERROR(1-PRODUCT(G7:G12),"GR")</f>
+        <f>IFERROR(1-PRODUCT(G7:G14),"GR")</f>
         <v>GR</v>
       </c>
       <c r="E2" t="str">
@@ -1924,7 +1924,7 @@
         <v>-</v>
       </c>
       <c r="G2">
-        <f t="array" ref="G2">MIN(IF('Normen en duidingsklassen'!$F$4:$F$8&gt;D2,'Normen en duidingsklassen'!$F$4:$F$8))</f>
+        <f t="array" ref="G2">MIN(IF('Normen en duidingsklassen'!$E$4:$E$8&gt;D2,'Normen en duidingsklassen'!$F$4:$F$8))</f>
         <v>0</v>
       </c>
       <c r="H2">
@@ -1937,20 +1937,20 @@
         <v>75</v>
       </c>
       <c r="D3" s="1">
-        <f>1-PRODUCT(H7:H12)</f>
-        <v>3.4415002202242029E-2</v>
+        <f>1-PRODUCT(H7:H14)</f>
+        <v>3.7572465145040645E-2</v>
       </c>
       <c r="E3" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$4:$D$8,H3)</f>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="G3">
-        <f t="array" ref="G3">MIN(IF('Normen en duidingsklassen'!$F$4:$F$8&gt;D3,'Normen en duidingsklassen'!$F$4:$F$8))</f>
-        <v>0.1</v>
+        <f t="array" ref="G3">MIN(IF('Normen en duidingsklassen'!$E$4:$E$8&gt;D3,'Normen en duidingsklassen'!$F$4:$F$8))</f>
+        <v>0</v>
       </c>
       <c r="H3">
         <f>IFERROR(MATCH(G3,'Normen en duidingsklassen'!$F$4:$F$8),1)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2012,11 +2012,11 @@
       </c>
       <c r="E8" s="49"/>
       <c r="G8" s="1" t="e">
-        <f t="shared" ref="G8:G14" si="0">IF(ISNUMBER(E8),1-E8,1-C8)</f>
+        <f t="shared" ref="G8:G13" si="0">IF(ISNUMBER(E8),1-E8,1-C8)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" ref="H8:H14" si="1">IF(ISNUMBER(E8),1-E8,1-D8)</f>
+        <f t="shared" ref="H8:H13" si="1">IF(ISNUMBER(E8),1-E8,1-D8)</f>
         <v>0.99887619554129115</v>
       </c>
     </row>
@@ -2109,17 +2109,25 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="40"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="31" t="str">
+        <f>BSKW!C5</f>
+        <v>GR</v>
+      </c>
+      <c r="D13" s="26">
+        <f>BSKW!C6</f>
+        <v>3.2699999999999999E-3</v>
+      </c>
       <c r="E13" s="49"/>
-      <c r="G13" s="1">
+      <c r="G13" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.99673</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2127,14 +2135,8 @@
       <c r="C14" s="33"/>
       <c r="D14" s="27"/>
       <c r="E14" s="51"/>
-      <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10041,7 +10043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A27DBF-2298-4509-84AE-DCEFED147711}">
   <dimension ref="B2:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>

--- a/benchmarktests/testdefinitions/Benchmarktest_traject 16-5.xlsx
+++ b/benchmarktests/testdefinitions/Benchmarktest_traject 16-5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53F4665-9339-48BC-9D09-A0489BF5C582}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504942E0-A7B6-431F-93AB-1037C892B012}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="9" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="653" firstSheet="1" activeTab="2" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="114">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -374,6 +374,15 @@
   </si>
   <si>
     <t>Gecombineerd (tussentijds)</t>
+  </si>
+  <si>
+    <t>Niet dominant</t>
+  </si>
+  <si>
+    <t>Dominant</t>
+  </si>
+  <si>
+    <t>Niet relevant</t>
   </si>
 </sst>
 </file>
@@ -732,7 +741,72 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="82">
+  <dxfs count="91">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00CC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1900,7 +1974,7 @@
   </sheetPr>
   <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -2280,7 +2354,7 @@
         <v>+III</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f t="array" ref="H3">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B3,C3),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H3">INDEX(GEKB!$K$11:$K$15,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$15&gt;AVERAGE(B3,C3),GEKB!$D$11:$D$15)),GEKB!$D$11:$D$15),1))</f>
         <v>NR</v>
       </c>
       <c r="I3" s="4" t="str">
@@ -2324,7 +2398,7 @@
         <v>-I</v>
       </c>
       <c r="H4" s="9" t="str">
-        <f t="array" ref="H4">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B4,C4),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H4">INDEX(GEKB!$K$11:$K$15,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$15&gt;AVERAGE(B4,C4),GEKB!$D$11:$D$15)),GEKB!$D$11:$D$15),1))</f>
         <v>NR</v>
       </c>
       <c r="I4" s="9" t="str">
@@ -2368,7 +2442,7 @@
         <v>-I</v>
       </c>
       <c r="H5" s="9" t="str">
-        <f t="array" ref="H5">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B5,C5),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H5">INDEX(GEKB!$K$11:$K$15,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$15&gt;AVERAGE(B5,C5),GEKB!$D$11:$D$15)),GEKB!$D$11:$D$15),1))</f>
         <v>NR</v>
       </c>
       <c r="I5" s="9" t="str">
@@ -2412,7 +2486,7 @@
         <v>NR</v>
       </c>
       <c r="H6" s="9" t="str">
-        <f t="array" ref="H6">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B6,C6),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H6">INDEX(GEKB!$K$11:$K$15,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$15&gt;AVERAGE(B6,C6),GEKB!$D$11:$D$15)),GEKB!$D$11:$D$15),1))</f>
         <v>NR</v>
       </c>
       <c r="I6" s="9" t="str">
@@ -2456,7 +2530,7 @@
         <v>-I</v>
       </c>
       <c r="H7" s="9" t="str">
-        <f t="array" ref="H7">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B7,C7),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H7">INDEX(GEKB!$K$11:$K$15,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$15&gt;AVERAGE(B7,C7),GEKB!$D$11:$D$15)),GEKB!$D$11:$D$15),1))</f>
         <v>NR</v>
       </c>
       <c r="I7" s="9" t="str">
@@ -2500,7 +2574,7 @@
         <v>NR</v>
       </c>
       <c r="H8" s="9" t="str">
-        <f t="array" ref="H8">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B8,C8),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H8">INDEX(GEKB!$K$11:$K$15,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$15&gt;AVERAGE(B8,C8),GEKB!$D$11:$D$15)),GEKB!$D$11:$D$15),1))</f>
         <v>NR</v>
       </c>
       <c r="I8" s="9" t="str">
@@ -2544,7 +2618,7 @@
         <v>-I</v>
       </c>
       <c r="H9" s="9" t="str">
-        <f t="array" ref="H9">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B9,C9),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H9">INDEX(GEKB!$K$11:$K$15,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$15&gt;AVERAGE(B9,C9),GEKB!$D$11:$D$15)),GEKB!$D$11:$D$15),1))</f>
         <v>NR</v>
       </c>
       <c r="I9" s="9" t="str">
@@ -2588,7 +2662,7 @@
         <v>-I</v>
       </c>
       <c r="H10" s="9" t="str">
-        <f t="array" ref="H10">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B10,C10),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H10">INDEX(GEKB!$K$11:$K$15,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$15&gt;AVERAGE(B10,C10),GEKB!$D$11:$D$15)),GEKB!$D$11:$D$15),1))</f>
         <v>NR</v>
       </c>
       <c r="I10" s="9" t="str">
@@ -2632,7 +2706,7 @@
         <v>D</v>
       </c>
       <c r="H11" s="9" t="str">
-        <f t="array" ref="H11">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B11,C11),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H11">INDEX(GEKB!$K$11:$K$15,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$15&gt;AVERAGE(B11,C11),GEKB!$D$11:$D$15)),GEKB!$D$11:$D$15),1))</f>
         <v>NR</v>
       </c>
       <c r="I11" s="9" t="str">
@@ -2676,7 +2750,7 @@
         <v>+III</v>
       </c>
       <c r="H12" s="9" t="str">
-        <f t="array" ref="H12">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B12,C12),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H12">INDEX(GEKB!$K$11:$K$15,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$15&gt;AVERAGE(B12,C12),GEKB!$D$11:$D$15)),GEKB!$D$11:$D$15),1))</f>
         <v>NR</v>
       </c>
       <c r="I12" s="9" t="str">
@@ -2720,7 +2794,7 @@
         <v>-I</v>
       </c>
       <c r="H13" s="9" t="str">
-        <f t="array" ref="H13">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B13,C13),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H13">INDEX(GEKB!$K$11:$K$15,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$15&gt;AVERAGE(B13,C13),GEKB!$D$11:$D$15)),GEKB!$D$11:$D$15),1))</f>
         <v>NR</v>
       </c>
       <c r="I13" s="9" t="str">
@@ -2764,7 +2838,7 @@
         <v>-I</v>
       </c>
       <c r="H14" s="9" t="str">
-        <f t="array" ref="H14">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B14,C14),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="H14">INDEX(GEKB!$K$11:$K$15,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$15&gt;AVERAGE(B14,C14),GEKB!$D$11:$D$15)),GEKB!$D$11:$D$15),1))</f>
         <v>NR</v>
       </c>
       <c r="I14" s="9" t="str">
@@ -3145,10 +3219,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49710E67-B736-4749-B620-06835F5DE469}">
-  <dimension ref="B2:Y32"/>
+  <dimension ref="B2:Z32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3171,7 +3245,7 @@
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
@@ -3179,7 +3253,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="36" t="s">
         <v>44</v>
       </c>
@@ -3187,7 +3261,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
         <v>109</v>
       </c>
@@ -3195,7 +3269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
         <v>47</v>
       </c>
@@ -3204,7 +3278,7 @@
         <v>GR</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
         <v>41</v>
       </c>
@@ -3213,7 +3287,7 @@
         <v>3.0440911317815011E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="41" t="s">
         <v>48</v>
       </c>
@@ -3222,12 +3296,12 @@
         <v>Nee</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
         <v>0</v>
       </c>
@@ -3290,12 +3364,17 @@
         <v>63</v>
       </c>
       <c r="W10" s="4"/>
-      <c r="X10" s="39" t="s">
+      <c r="X10" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="Y10" s="35"/>
-    </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y10" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z10" s="39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -3318,24 +3397,24 @@
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="29" t="str">
-        <f t="shared" ref="L11:L22" si="0">IF($E11="Nee",0,IF(I11="Ja",IF(ISNUMBER(J11),J11,"-"),IF(ISNUMBER(G11),G11,"-")))</f>
-        <v>-</v>
-      </c>
-      <c r="M11" s="5" t="str">
-        <f t="shared" ref="M11:M22" si="1">IF($E11="Nee",0,IF(I11="Ja",IF(ISNUMBER(K11),K11,"-"),IF(ISNUMBER(H11),H11,"-")))</f>
-        <v>-</v>
-      </c>
-      <c r="N11" s="6" t="str">
-        <f t="shared" ref="N11:N22" si="2">IF(ISNUMBER(L11),IF(M11=0,1,M11/L11),"-")</f>
-        <v>-</v>
+      <c r="L11" s="29">
+        <f>IF($Z11=TRUE,0,IF($Y11=TRUE,0,IF($X11=TRUE,IF(ISNUMBER($J11),J11,"-"),IF(ISNUMBER(G11),G11,"-"))))</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" ref="M11:M22" si="0">IF($Z11=TRUE,0,IF($Y11=TRUE,0,IF(I11="Ja",IF(ISNUMBER(K11),K11,"-"),IF(ISNUMBER(H11),H11,"-"))))</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" ref="N11:N22" si="1">IF(ISNUMBER(L11),IF(M11=0,1,M11/L11),"-")</f>
+        <v>1</v>
       </c>
       <c r="O11" s="30" t="str">
-        <f>IF(E11="Nee","NR",IF(ISNUMBER($M11),W11,IF($X11,"D","ND")))</f>
+        <f>IF($Z11=TRUE,"NR",IF($Y11=TRUE,"ND",IF($X11=TRUE,"D",W11)))</f>
         <v>ND</v>
       </c>
       <c r="Q11" s="31">
-        <f t="shared" ref="Q11:Q22" si="3">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
+        <f t="shared" ref="Q11:Q22" si="2">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
         <v>1</v>
       </c>
       <c r="R11" s="10">
@@ -3343,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="10">
-        <f t="shared" ref="S11:S22" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
+        <f t="shared" ref="S11:S22" si="3">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="T11" s="10">
@@ -3362,12 +3441,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V11)</f>
         <v>+III</v>
       </c>
-      <c r="X11" s="12" t="b">
+      <c r="X11" s="9" t="b">
         <f>IF($E11="Ja",IF($I11="Ja",NOT(ISNUMBER($J11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y11" s="9" t="b">
+        <f>IF($E11="Ja",IF($I11="Nee",OR(NOT(ISNUMBER($G11)),NOT(ISNUMBER($H11))),FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Z11" s="12" t="b">
+        <f>IF($E11="Nee",TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
@@ -3387,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="26">
-        <f t="shared" ref="H12" si="5">G12*3.66</f>
+        <f t="shared" ref="H12" si="4">G12*3.66</f>
         <v>0</v>
       </c>
       <c r="I12" s="8" t="s">
@@ -3396,35 +3483,35 @@
       <c r="J12" s="10"/>
       <c r="K12" s="26"/>
       <c r="L12" s="31">
+        <f>IF($Z12=TRUE,0,IF($Y12=TRUE,0,IF($X12=TRUE,IF(ISNUMBER($J12),J12,"-"),IF(ISNUMBER(G12),G12,"-"))))</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="10">
+      <c r="N12" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="11">
+        <v>1</v>
+      </c>
+      <c r="O12" s="32" t="str">
+        <f>IF($Z12=TRUE,"NR",IF($Y12=TRUE,"ND",IF($X12=TRUE,"D",W12)))</f>
+        <v>+III</v>
+      </c>
+      <c r="Q12" s="31">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O12" s="32" t="str">
-        <f t="shared" ref="O12:O15" si="6">IF(E12="Nee","NR",IF(ISNUMBER($M12),W12,IF($X12,"D","ND")))</f>
-        <v>+III</v>
-      </c>
-      <c r="Q12" s="31">
+      <c r="R12" s="10">
+        <f t="shared" ref="R12:R22" si="5">IF(M12="-",1,Q12)</f>
+        <v>1</v>
+      </c>
+      <c r="S12" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R12" s="10">
-        <f t="shared" ref="R12:R22" si="7">IF(M12="-",1,Q12)</f>
-        <v>1</v>
-      </c>
-      <c r="S12" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T12" s="10">
-        <f t="shared" ref="T12:T22" si="8">IF(L12="-",0,S12)</f>
+        <f t="shared" ref="T12:T22" si="6">IF(L12="-",0,S12)</f>
         <v>0</v>
       </c>
       <c r="U12" s="9">
@@ -3439,12 +3526,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V12)</f>
         <v>+III</v>
       </c>
-      <c r="X12" s="12" t="b">
-        <f t="shared" ref="X12:X22" si="9">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="X12" s="9" t="b">
+        <f t="shared" ref="X12:X22" si="7">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="9" t="b">
+        <f t="shared" ref="Y12:Y22" si="8">IF($E12="Ja",IF($I12="Nee",OR(NOT(ISNUMBER($G12)),NOT(ISNUMBER($H12))),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="12" t="b">
+        <f t="shared" ref="Z12:Z22" si="9">IF($E12="Nee",TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
@@ -3476,36 +3571,36 @@
         <v>0</v>
       </c>
       <c r="L13" s="31">
+        <f>IF($Z13=TRUE,0,IF($Y13=TRUE,0,IF($X13=TRUE,IF(ISNUMBER($J13),J13,"-"),IF(ISNUMBER(G13),G13,"-"))))</f>
+        <v>1</v>
+      </c>
+      <c r="M13" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="10">
+      <c r="N13" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="11">
+        <v>1</v>
+      </c>
+      <c r="O13" s="32" t="str">
+        <f>IF($Z13=TRUE,"NR",IF($Y13=TRUE,"ND",IF($X13=TRUE,"D",W13)))</f>
+        <v>+III</v>
+      </c>
+      <c r="Q13" s="31">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O13" s="32" t="str">
+      <c r="R13" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S13" s="10">
+        <f t="shared" si="3"/>
+        <v>28.9</v>
+      </c>
+      <c r="T13" s="10">
         <f t="shared" si="6"/>
-        <v>+III</v>
-      </c>
-      <c r="Q13" s="31">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R13" s="10">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S13" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>28.9</v>
       </c>
       <c r="U13" s="9">
         <f t="array" ref="U13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -3519,12 +3614,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V13)</f>
         <v>+III</v>
       </c>
-      <c r="X13" s="12" t="b">
+      <c r="X13" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="9" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="12" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
@@ -3553,35 +3656,35 @@
       <c r="J14" s="10"/>
       <c r="K14" s="26"/>
       <c r="L14" s="31" t="str">
+        <f>IF($Z14=TRUE,0,IF($Y14=TRUE,0,IF($X14=TRUE,IF(ISNUMBER($J14),J14,"-"),IF(ISNUMBER(G14),G14,"-"))))</f>
+        <v>-</v>
+      </c>
+      <c r="M14" s="10" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="M14" s="10" t="str">
+      <c r="N14" s="11" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N14" s="11" t="str">
+      <c r="O14" s="32" t="str">
+        <f>IF($Z14=TRUE,"NR",IF($Y14=TRUE,"ND",IF($X14=TRUE,"D",W14)))</f>
+        <v>D</v>
+      </c>
+      <c r="Q14" s="31" t="e">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="O14" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>D</v>
-      </c>
-      <c r="Q14" s="31" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R14" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S14" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R14" s="10">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S14" s="10" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="T14" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U14" s="9">
@@ -3596,12 +3699,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V14)</f>
         <v>+III</v>
       </c>
-      <c r="X14" s="12" t="b">
+      <c r="X14" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y14" s="9" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="12" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
@@ -3633,36 +3744,36 @@
         <v>1.8300000000000001E-5</v>
       </c>
       <c r="L15" s="31">
+        <f>IF($Z15=TRUE,0,IF($Y15=TRUE,0,IF($X15=TRUE,IF(ISNUMBER($J15),J15,"-"),IF(ISNUMBER(G15),G15,"-"))))</f>
+        <v>1</v>
+      </c>
+      <c r="M15" s="10">
         <f t="shared" si="0"/>
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="M15" s="10">
+        <v>1.8300000000000001E-5</v>
+      </c>
+      <c r="N15" s="11">
         <f t="shared" si="1"/>
         <v>1.8300000000000001E-5</v>
       </c>
-      <c r="N15" s="11">
+      <c r="O15" s="32" t="str">
+        <f>IF($Z15=TRUE,"NR",IF($Y15=TRUE,"ND",IF($X15=TRUE,"D",W15)))</f>
+        <v>-I</v>
+      </c>
+      <c r="Q15" s="31">
         <f t="shared" si="2"/>
-        <v>3.6599999999999997</v>
-      </c>
-      <c r="O15" s="32" t="str">
+        <v>0.99998169999999997</v>
+      </c>
+      <c r="R15" s="10">
+        <f t="shared" si="5"/>
+        <v>0.99998169999999997</v>
+      </c>
+      <c r="S15" s="10">
+        <f t="shared" si="3"/>
+        <v>28.9</v>
+      </c>
+      <c r="T15" s="10">
         <f t="shared" si="6"/>
-        <v>-I</v>
-      </c>
-      <c r="Q15" s="31">
-        <f t="shared" si="3"/>
-        <v>0.99998169999999997</v>
-      </c>
-      <c r="R15" s="10">
-        <f t="shared" si="7"/>
-        <v>0.99998169999999997</v>
-      </c>
-      <c r="S15" s="10">
-        <f t="shared" si="4"/>
-        <v>1.4450000000000002E-4</v>
-      </c>
-      <c r="T15" s="10">
-        <f t="shared" si="8"/>
-        <v>1.4450000000000002E-4</v>
+        <v>28.9</v>
       </c>
       <c r="U15" s="9">
         <f t="array" ref="U15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -3676,12 +3787,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V15)</f>
         <v>-I</v>
       </c>
-      <c r="X15" s="12" t="b">
+      <c r="X15" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="9" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="12" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
@@ -3705,35 +3824,35 @@
       <c r="J16" s="10"/>
       <c r="K16" s="26"/>
       <c r="L16" s="31">
+        <f>IF($Z16=TRUE,0,IF($Y16=TRUE,0,IF($X16=TRUE,IF(ISNUMBER($J16),J16,"-"),IF(ISNUMBER(G16),G16,"-"))))</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M16" s="10">
+      <c r="N16" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="11">
+        <v>1</v>
+      </c>
+      <c r="O16" s="32" t="str">
+        <f>IF($Z16=TRUE,"NR",IF($Y16=TRUE,"ND",IF($X16=TRUE,"D",W16)))</f>
+        <v>NR</v>
+      </c>
+      <c r="Q16" s="31">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O16" s="32" t="str">
-        <f>IF(E16="Nee","NR",IF(ISNUMBER($M16),W16,IF($X16,"D","ND")))</f>
-        <v>NR</v>
-      </c>
-      <c r="Q16" s="31">
+      <c r="R16" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S16" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R16" s="10">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S16" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T16" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U16" s="9">
@@ -3748,12 +3867,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V16)</f>
         <v>+III</v>
       </c>
-      <c r="X16" s="12" t="b">
+      <c r="X16" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="9" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="12" t="b">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>14</v>
       </c>
@@ -3777,35 +3904,35 @@
       <c r="J17" s="10"/>
       <c r="K17" s="26"/>
       <c r="L17" s="31">
+        <f>IF($Z17=TRUE,0,IF($Y17=TRUE,0,IF($X17=TRUE,IF(ISNUMBER($J17),J17,"-"),IF(ISNUMBER(G17),G17,"-"))))</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M17" s="10">
+      <c r="N17" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="11">
+        <v>1</v>
+      </c>
+      <c r="O17" s="32" t="str">
+        <f>IF($Z17=TRUE,"NR",IF($Y17=TRUE,"ND",IF($X17=TRUE,"D",W17)))</f>
+        <v>NR</v>
+      </c>
+      <c r="Q17" s="31">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O17" s="32" t="str">
-        <f t="shared" ref="O17:O22" si="10">IF(E17="Nee","NR",IF(ISNUMBER($M17),W17,IF($X17,"D","ND")))</f>
-        <v>NR</v>
-      </c>
-      <c r="Q17" s="31">
+      <c r="R17" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S17" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R17" s="10">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S17" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T17" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U17" s="9">
@@ -3820,12 +3947,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V17)</f>
         <v>+III</v>
       </c>
-      <c r="X17" s="12" t="b">
+      <c r="X17" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="9" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="12" t="b">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>15</v>
       </c>
@@ -3849,35 +3984,35 @@
       <c r="J18" s="10"/>
       <c r="K18" s="26"/>
       <c r="L18" s="31">
+        <f>IF($Z18=TRUE,0,IF($Y18=TRUE,0,IF($X18=TRUE,IF(ISNUMBER($J18),J18,"-"),IF(ISNUMBER(G18),G18,"-"))))</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18" s="10">
+      <c r="N18" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="11">
+        <v>1</v>
+      </c>
+      <c r="O18" s="32" t="str">
+        <f>IF($Z18=TRUE,"NR",IF($Y18=TRUE,"ND",IF($X18=TRUE,"D",W18)))</f>
+        <v>NR</v>
+      </c>
+      <c r="Q18" s="31">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O18" s="32" t="str">
-        <f t="shared" si="10"/>
-        <v>NR</v>
-      </c>
-      <c r="Q18" s="31">
+      <c r="R18" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S18" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R18" s="10">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S18" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T18" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U18" s="9">
@@ -3892,12 +4027,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V18)</f>
         <v>+III</v>
       </c>
-      <c r="X18" s="12" t="b">
+      <c r="X18" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="9" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="12" t="b">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>16</v>
       </c>
@@ -3917,7 +4060,7 @@
         <v>7.27E-4</v>
       </c>
       <c r="H19" s="26">
-        <f t="shared" ref="H19:H22" si="11">G19*3.66</f>
+        <f t="shared" ref="H19:H22" si="10">G19*3.66</f>
         <v>2.6608199999999999E-3</v>
       </c>
       <c r="I19" s="8" t="s">
@@ -3926,35 +4069,35 @@
       <c r="J19" s="10"/>
       <c r="K19" s="26"/>
       <c r="L19" s="31">
+        <f>IF($Z19=TRUE,0,IF($Y19=TRUE,0,IF($X19=TRUE,IF(ISNUMBER($J19),J19,"-"),IF(ISNUMBER(G19),G19,"-"))))</f>
+        <v>7.27E-4</v>
+      </c>
+      <c r="M19" s="10">
         <f t="shared" si="0"/>
-        <v>7.27E-4</v>
-      </c>
-      <c r="M19" s="10">
+        <v>2.6608199999999999E-3</v>
+      </c>
+      <c r="N19" s="11">
         <f t="shared" si="1"/>
-        <v>2.6608199999999999E-3</v>
-      </c>
-      <c r="N19" s="11">
+        <v>3.66</v>
+      </c>
+      <c r="O19" s="32" t="str">
+        <f>IF($Z19=TRUE,"NR",IF($Y19=TRUE,"ND",IF($X19=TRUE,"D",W19)))</f>
+        <v>-I</v>
+      </c>
+      <c r="Q19" s="31">
         <f t="shared" si="2"/>
-        <v>3.66</v>
-      </c>
-      <c r="O19" s="32" t="str">
-        <f t="shared" si="10"/>
-        <v>-I</v>
-      </c>
-      <c r="Q19" s="31">
+        <v>0.99733917999999999</v>
+      </c>
+      <c r="R19" s="10">
+        <f t="shared" si="5"/>
+        <v>0.99733917999999999</v>
+      </c>
+      <c r="S19" s="10">
         <f t="shared" si="3"/>
-        <v>0.99733917999999999</v>
-      </c>
-      <c r="R19" s="10">
-        <f t="shared" si="7"/>
-        <v>0.99733917999999999</v>
-      </c>
-      <c r="S19" s="10">
-        <f t="shared" si="4"/>
         <v>2.1010299999999999E-2</v>
       </c>
       <c r="T19" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2.1010299999999999E-2</v>
       </c>
       <c r="U19" s="9">
@@ -3969,12 +4112,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V19)</f>
         <v>-I</v>
       </c>
-      <c r="X19" s="12" t="b">
+      <c r="X19" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="9" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="12" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
@@ -3994,7 +4145,7 @@
         <v>7.2800000000000002E-4</v>
       </c>
       <c r="H20" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.6644800000000003E-3</v>
       </c>
       <c r="I20" s="8" t="s">
@@ -4007,36 +4158,36 @@
         <v>0</v>
       </c>
       <c r="L20" s="31">
+        <f>IF($Z20=TRUE,0,IF($Y20=TRUE,0,IF($X20=TRUE,IF(ISNUMBER($J20),J20,"-"),IF(ISNUMBER(G20),G20,"-"))))</f>
+        <v>7.2800000000000002E-4</v>
+      </c>
+      <c r="M20" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M20" s="10">
+      <c r="N20" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="11">
+        <v>1</v>
+      </c>
+      <c r="O20" s="32" t="str">
+        <f>IF($Z20=TRUE,"NR",IF($Y20=TRUE,"ND",IF($X20=TRUE,"D",W20)))</f>
+        <v>+III</v>
+      </c>
+      <c r="Q20" s="31">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O20" s="32" t="str">
-        <f t="shared" si="10"/>
-        <v>+III</v>
-      </c>
-      <c r="Q20" s="31">
+      <c r="R20" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S20" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R20" s="10">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S20" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.1039200000000001E-2</v>
       </c>
       <c r="T20" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2.1039200000000001E-2</v>
       </c>
       <c r="U20" s="9">
         <f t="array" ref="U20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -4050,12 +4201,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V20)</f>
         <v>+III</v>
       </c>
-      <c r="X20" s="12" t="b">
+      <c r="X20" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="9" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="12" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
@@ -4075,7 +4234,7 @@
         <v>1E-10</v>
       </c>
       <c r="H21" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.6600000000000003E-10</v>
       </c>
       <c r="I21" s="8" t="s">
@@ -4084,35 +4243,35 @@
       <c r="J21" s="10"/>
       <c r="K21" s="26"/>
       <c r="L21" s="31">
+        <f>IF($Z21=TRUE,0,IF($Y21=TRUE,0,IF($X21=TRUE,IF(ISNUMBER($J21),J21,"-"),IF(ISNUMBER(G21),G21,"-"))))</f>
+        <v>1E-10</v>
+      </c>
+      <c r="M21" s="10">
         <f t="shared" si="0"/>
-        <v>1E-10</v>
-      </c>
-      <c r="M21" s="10">
+        <v>3.6600000000000003E-10</v>
+      </c>
+      <c r="N21" s="11">
         <f t="shared" si="1"/>
-        <v>3.6600000000000003E-10</v>
-      </c>
-      <c r="N21" s="11">
+        <v>3.66</v>
+      </c>
+      <c r="O21" s="32" t="str">
+        <f>IF($Z21=TRUE,"NR",IF($Y21=TRUE,"ND",IF($X21=TRUE,"D",W21)))</f>
+        <v>-I</v>
+      </c>
+      <c r="Q21" s="31">
         <f t="shared" si="2"/>
-        <v>3.66</v>
-      </c>
-      <c r="O21" s="32" t="str">
-        <f t="shared" si="10"/>
-        <v>-I</v>
-      </c>
-      <c r="Q21" s="31">
+        <v>0.99999999963399999</v>
+      </c>
+      <c r="R21" s="10">
+        <f t="shared" si="5"/>
+        <v>0.99999999963399999</v>
+      </c>
+      <c r="S21" s="10">
         <f t="shared" si="3"/>
-        <v>0.99999999963399999</v>
-      </c>
-      <c r="R21" s="10">
-        <f t="shared" si="7"/>
-        <v>0.99999999963399999</v>
-      </c>
-      <c r="S21" s="10">
-        <f t="shared" si="4"/>
         <v>2.8900000000000002E-9</v>
       </c>
       <c r="T21" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2.8900000000000002E-9</v>
       </c>
       <c r="U21" s="9">
@@ -4127,12 +4286,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V21)</f>
         <v>-I</v>
       </c>
-      <c r="X21" s="12" t="b">
+      <c r="X21" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="9" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="12" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>19</v>
       </c>
@@ -4152,7 +4319,7 @@
         <v>1E-4</v>
       </c>
       <c r="H22" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.6600000000000001E-4</v>
       </c>
       <c r="I22" s="8" t="s">
@@ -4161,35 +4328,35 @@
       <c r="J22" s="10"/>
       <c r="K22" s="26"/>
       <c r="L22" s="31">
+        <f>IF($Z22=TRUE,0,IF($Y22=TRUE,0,IF($X22=TRUE,IF(ISNUMBER($J22),J22,"-"),IF(ISNUMBER(G22),G22,"-"))))</f>
+        <v>1E-4</v>
+      </c>
+      <c r="M22" s="10">
         <f t="shared" si="0"/>
-        <v>1E-4</v>
-      </c>
-      <c r="M22" s="10">
+        <v>3.6600000000000001E-4</v>
+      </c>
+      <c r="N22" s="11">
         <f t="shared" si="1"/>
-        <v>3.6600000000000001E-4</v>
-      </c>
-      <c r="N22" s="11">
+        <v>3.6599999999999997</v>
+      </c>
+      <c r="O22" s="32" t="str">
+        <f>IF($Z22=TRUE,"NR",IF($Y22=TRUE,"ND",IF($X22=TRUE,"D",W22)))</f>
+        <v>-I</v>
+      </c>
+      <c r="Q22" s="31">
         <f t="shared" si="2"/>
-        <v>3.6599999999999997</v>
-      </c>
-      <c r="O22" s="32" t="str">
-        <f t="shared" si="10"/>
-        <v>-I</v>
-      </c>
-      <c r="Q22" s="31">
+        <v>0.99963400000000002</v>
+      </c>
+      <c r="R22" s="10">
+        <f t="shared" si="5"/>
+        <v>0.99963400000000002</v>
+      </c>
+      <c r="S22" s="10">
         <f t="shared" si="3"/>
-        <v>0.99963400000000002</v>
-      </c>
-      <c r="R22" s="10">
-        <f t="shared" si="7"/>
-        <v>0.99963400000000002</v>
-      </c>
-      <c r="S22" s="10">
-        <f t="shared" si="4"/>
         <v>2.8900000000000002E-3</v>
       </c>
       <c r="T22" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2.8900000000000002E-3</v>
       </c>
       <c r="U22" s="9">
@@ -4204,12 +4371,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V22)</f>
         <v>-I</v>
       </c>
-      <c r="X22" s="12" t="b">
+      <c r="X22" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="9" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="12" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -4231,9 +4406,11 @@
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
       <c r="W23" s="9"/>
-      <c r="X23" s="12"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="12"/>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -4255,9 +4432,11 @@
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
       <c r="W24" s="9"/>
-      <c r="X24" s="12"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="12"/>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -4279,9 +4458,11 @@
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
-      <c r="X25" s="12"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="12"/>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -4303,9 +4484,11 @@
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
-      <c r="X26" s="12"/>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="12"/>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -4327,9 +4510,11 @@
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
-      <c r="X27" s="12"/>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="12"/>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -4351,9 +4536,11 @@
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
-      <c r="X28" s="12"/>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="12"/>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -4375,9 +4562,11 @@
       <c r="U29" s="9"/>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
-      <c r="X29" s="12"/>
-    </row>
-    <row r="30" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="12"/>
+    </row>
+    <row r="30" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -4399,33 +4588,35 @@
       <c r="U30" s="14"/>
       <c r="V30" s="14"/>
       <c r="W30" s="14"/>
-      <c r="X30" s="17"/>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="17"/>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="Q32" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11:H30">
-    <cfRule type="expression" dxfId="81" priority="11">
+    <cfRule type="expression" dxfId="90" priority="11">
       <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:K30">
-    <cfRule type="expression" dxfId="80" priority="10">
+    <cfRule type="expression" dxfId="89" priority="10">
       <formula>IF($I11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:O30">
-    <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4521,10 +4712,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFA30DD-EAF1-4973-B290-E12CB5036732}">
-  <dimension ref="B2:Y32"/>
+  <dimension ref="B2:Z32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="L11" sqref="L11:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4547,7 +4738,7 @@
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
@@ -4555,7 +4746,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="36" t="s">
         <v>44</v>
       </c>
@@ -4563,7 +4754,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
         <v>109</v>
       </c>
@@ -4571,7 +4762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
         <v>47</v>
       </c>
@@ -4580,7 +4771,7 @@
         <v>GR</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
         <v>41</v>
       </c>
@@ -4589,7 +4780,7 @@
         <v>1.1238044587088547E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="41" t="s">
         <v>48</v>
       </c>
@@ -4598,12 +4789,12 @@
         <v>Nee</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
         <v>0</v>
       </c>
@@ -4666,12 +4857,17 @@
         <v>63</v>
       </c>
       <c r="W10" s="4"/>
-      <c r="X10" s="39" t="s">
+      <c r="X10" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="Y10" s="35"/>
-    </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y10" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z10" s="39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -4699,23 +4895,23 @@
       <c r="J11" s="5"/>
       <c r="K11" s="25"/>
       <c r="L11" s="29">
-        <f t="shared" ref="L11:L18" si="0">IF($E11="Nee",0,IF(I11="Ja",IF(ISNUMBER(J11),J11,"-"),IF(ISNUMBER(G11),G11,"-")))</f>
+        <f>IF($Z11=TRUE,0,IF($Y11=TRUE,0,IF($X11=TRUE,IF(ISNUMBER($J11),J11,"-"),IF(ISNUMBER(G11),G11,"-"))))</f>
         <v>0</v>
       </c>
       <c r="M11" s="5">
-        <f t="shared" ref="M11:M18" si="1">IF($E11="Nee",0,IF(I11="Ja",IF(ISNUMBER(K11),K11,"-"),IF(ISNUMBER(H11),H11,"-")))</f>
+        <f t="shared" ref="M11:M21" si="0">IF($Z11=TRUE,0,IF($Y11=TRUE,0,IF(I11="Ja",IF(ISNUMBER(K11),K11,"-"),IF(ISNUMBER(H11),H11,"-"))))</f>
         <v>0</v>
       </c>
       <c r="N11" s="6">
-        <f t="shared" ref="N11:N22" si="2">IF(ISNUMBER(L11),IF(M11=0,1,M11/L11),"-")</f>
+        <f t="shared" ref="N11:N22" si="1">IF(ISNUMBER(L11),IF(M11=0,1,M11/L11),"-")</f>
         <v>1</v>
       </c>
       <c r="O11" s="30" t="str">
-        <f t="shared" ref="O11:O22" si="3">IF(E11="Nee","NR",IF(ISNUMBER($M11),W11,IF($X11,"D","ND")))</f>
+        <f>IF($Z11=TRUE,"NR",IF($Y11=TRUE,"ND",IF($X11=TRUE,"D",W11)))</f>
         <v>+III</v>
       </c>
       <c r="Q11" s="31">
-        <f t="shared" ref="Q11:Q22" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
+        <f t="shared" ref="Q11:Q22" si="2">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
         <v>1</v>
       </c>
       <c r="R11" s="10">
@@ -4723,7 +4919,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="10">
-        <f t="shared" ref="S11:S22" si="5">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
+        <f t="shared" ref="S11:S22" si="3">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="T11" s="10">
@@ -4742,12 +4938,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V11)</f>
         <v>+III</v>
       </c>
-      <c r="X11" s="12" t="b">
-        <f>IF($E11="Ja",IF($I11="Ja",NOT(ISNUMBER($J11)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="X11" s="9" t="b">
+        <f>IF($E11="Ja",IF($I11="Ja",OR(NOT(ISNUMBER($J11)),NOT(ISNUMBER($K11))),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="9" t="b">
+        <f>IF($E11="Ja",IF($I11="Nee",OR(NOT(ISNUMBER($G11)),NOT(ISNUMBER($H11))),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="12" t="b">
+        <f>IF($E11="Nee",TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
@@ -4775,23 +4979,23 @@
       <c r="J12" s="10"/>
       <c r="K12" s="26"/>
       <c r="L12" s="31">
+        <f t="shared" ref="L12:L22" si="4">IF($Z12=TRUE,0,IF($Y12=TRUE,0,IF($X12=TRUE,IF(ISNUMBER($J12),J12,"-"),IF(ISNUMBER(G12),G12,"-"))))</f>
+        <v>2.3699999999999999E-4</v>
+      </c>
+      <c r="M12" s="10">
         <f t="shared" si="0"/>
-        <v>2.3699999999999999E-4</v>
-      </c>
-      <c r="M12" s="10">
+        <v>5.4984000000000001E-4</v>
+      </c>
+      <c r="N12" s="11">
         <f t="shared" si="1"/>
-        <v>5.4984000000000001E-4</v>
-      </c>
-      <c r="N12" s="11">
+        <v>2.3200000000000003</v>
+      </c>
+      <c r="O12" s="32" t="str">
+        <f t="shared" ref="O12:O22" si="5">IF($Z12=TRUE,"NR",IF($Y12=TRUE,"ND",IF($X12=TRUE,"D",W12)))</f>
+        <v>-I</v>
+      </c>
+      <c r="Q12" s="31">
         <f t="shared" si="2"/>
-        <v>2.3200000000000003</v>
-      </c>
-      <c r="O12" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>-I</v>
-      </c>
-      <c r="Q12" s="31">
-        <f t="shared" si="4"/>
         <v>0.99945015999999998</v>
       </c>
       <c r="R12" s="10">
@@ -4799,7 +5003,7 @@
         <v>0.99945015999999998</v>
       </c>
       <c r="S12" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3.5076E-3</v>
       </c>
       <c r="T12" s="10">
@@ -4818,12 +5022,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V12)</f>
         <v>-I</v>
       </c>
-      <c r="X12" s="12" t="b">
-        <f t="shared" ref="X12:X22" si="8">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="X12" s="9" t="b">
+        <f t="shared" ref="X12:X22" si="8">IF($E12="Ja",IF($I12="Ja",OR(NOT(ISNUMBER($J12)),NOT(ISNUMBER($K12))),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="9" t="b">
+        <f t="shared" ref="Y12:Y22" si="9">IF($E12="Ja",IF($I12="Nee",OR(NOT(ISNUMBER($G12)),NOT(ISNUMBER($H12))),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="12" t="b">
+        <f t="shared" ref="Z12:Z22" si="10">IF($E12="Nee",TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
@@ -4851,23 +5063,23 @@
       <c r="J13" s="10"/>
       <c r="K13" s="26"/>
       <c r="L13" s="31">
+        <f t="shared" si="4"/>
+        <v>1E-50</v>
+      </c>
+      <c r="M13" s="10">
         <f t="shared" si="0"/>
-        <v>1E-50</v>
-      </c>
-      <c r="M13" s="10">
+        <v>2.3200000000000003E-50</v>
+      </c>
+      <c r="N13" s="11">
         <f t="shared" si="1"/>
-        <v>2.3200000000000003E-50</v>
-      </c>
-      <c r="N13" s="11">
+        <v>2.3200000000000003</v>
+      </c>
+      <c r="O13" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v>-I</v>
+      </c>
+      <c r="Q13" s="31">
         <f t="shared" si="2"/>
-        <v>2.3200000000000003</v>
-      </c>
-      <c r="O13" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>-I</v>
-      </c>
-      <c r="Q13" s="31">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="R13" s="10">
@@ -4875,7 +5087,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.48E-49</v>
       </c>
       <c r="T13" s="10">
@@ -4894,12 +5106,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V13)</f>
         <v>-I</v>
       </c>
-      <c r="X13" s="12" t="b">
+      <c r="X13" s="9" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y13" s="9" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
@@ -4923,23 +5143,23 @@
       <c r="J14" s="10"/>
       <c r="K14" s="26"/>
       <c r="L14" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M14" s="10">
+      <c r="N14" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="11">
+        <v>1</v>
+      </c>
+      <c r="O14" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v>NR</v>
+      </c>
+      <c r="Q14" s="31">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O14" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>NR</v>
-      </c>
-      <c r="Q14" s="31">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="R14" s="10">
@@ -4947,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="S14" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T14" s="10">
@@ -4966,12 +5186,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V14)</f>
         <v>+III</v>
       </c>
-      <c r="X14" s="12" t="b">
+      <c r="X14" s="9" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y14" s="9" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
@@ -4999,23 +5227,23 @@
       <c r="J15" s="10"/>
       <c r="K15" s="26"/>
       <c r="L15" s="31">
+        <f t="shared" si="4"/>
+        <v>2.3751999999999999E-4</v>
+      </c>
+      <c r="M15" s="10">
         <f t="shared" si="0"/>
-        <v>2.3751999999999999E-4</v>
-      </c>
-      <c r="M15" s="10">
+        <v>5.5104640000000005E-4</v>
+      </c>
+      <c r="N15" s="11">
         <f t="shared" si="1"/>
-        <v>5.5104640000000005E-4</v>
-      </c>
-      <c r="N15" s="11">
+        <v>2.3200000000000003</v>
+      </c>
+      <c r="O15" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v>-I</v>
+      </c>
+      <c r="Q15" s="31">
         <f t="shared" si="2"/>
-        <v>2.3200000000000003</v>
-      </c>
-      <c r="O15" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>-I</v>
-      </c>
-      <c r="Q15" s="31">
-        <f t="shared" si="4"/>
         <v>0.99944895359999997</v>
       </c>
       <c r="R15" s="10">
@@ -5023,7 +5251,7 @@
         <v>0.99944895359999997</v>
       </c>
       <c r="S15" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3.5152960000000002E-3</v>
       </c>
       <c r="T15" s="10">
@@ -5042,12 +5270,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V15)</f>
         <v>-I</v>
       </c>
-      <c r="X15" s="12" t="b">
+      <c r="X15" s="9" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y15" s="9" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
@@ -5071,23 +5307,23 @@
       <c r="J16" s="10"/>
       <c r="K16" s="26"/>
       <c r="L16" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M16" s="10">
+      <c r="N16" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="11">
+        <v>1</v>
+      </c>
+      <c r="O16" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v>NR</v>
+      </c>
+      <c r="Q16" s="31">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O16" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>NR</v>
-      </c>
-      <c r="Q16" s="31">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="R16" s="10">
@@ -5095,7 +5331,7 @@
         <v>1</v>
       </c>
       <c r="S16" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T16" s="10">
@@ -5114,12 +5350,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V16)</f>
         <v>+III</v>
       </c>
-      <c r="X16" s="12" t="b">
+      <c r="X16" s="9" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y16" s="9" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>14</v>
       </c>
@@ -5152,23 +5396,23 @@
         <v>2.3200000000000005E-5</v>
       </c>
       <c r="L17" s="31">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="M17" s="10">
         <f t="shared" si="0"/>
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="M17" s="10">
+        <v>2.3200000000000005E-5</v>
+      </c>
+      <c r="N17" s="11">
         <f t="shared" si="1"/>
-        <v>2.3200000000000005E-5</v>
-      </c>
-      <c r="N17" s="11">
+        <v>2.3200000000000003E-4</v>
+      </c>
+      <c r="O17" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v>-I</v>
+      </c>
+      <c r="Q17" s="31">
         <f t="shared" si="2"/>
-        <v>2.3200000000000003</v>
-      </c>
-      <c r="O17" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>-I</v>
-      </c>
-      <c r="Q17" s="31">
-        <f t="shared" si="4"/>
         <v>0.9999768</v>
       </c>
       <c r="R17" s="10">
@@ -5176,12 +5420,12 @@
         <v>0.9999768</v>
       </c>
       <c r="S17" s="10">
-        <f t="shared" si="5"/>
-        <v>1.4800000000000002E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.4800000000000002</v>
       </c>
       <c r="T17" s="10">
         <f t="shared" si="7"/>
-        <v>1.4800000000000002E-4</v>
+        <v>1.4800000000000002</v>
       </c>
       <c r="U17" s="9">
         <f t="array" ref="U17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -5195,12 +5439,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V17)</f>
         <v>-I</v>
       </c>
-      <c r="X17" s="12" t="b">
+      <c r="X17" s="9" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y17" s="9" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>15</v>
       </c>
@@ -5220,7 +5472,7 @@
         <v>2.3800000000000001E-4</v>
       </c>
       <c r="H18" s="26">
-        <f t="shared" ref="H18:H22" si="9">G18*2.32</f>
+        <f t="shared" ref="H18:H22" si="11">G18*2.32</f>
         <v>5.5216E-4</v>
       </c>
       <c r="I18" s="8" t="s">
@@ -5233,23 +5485,23 @@
         <v>2.3200000000000003E-10</v>
       </c>
       <c r="L18" s="31">
+        <f t="shared" si="4"/>
+        <v>2.3800000000000001E-4</v>
+      </c>
+      <c r="M18" s="10">
         <f t="shared" si="0"/>
-        <v>1E-10</v>
-      </c>
-      <c r="M18" s="10">
+        <v>2.3200000000000003E-10</v>
+      </c>
+      <c r="N18" s="11">
         <f t="shared" si="1"/>
-        <v>2.3200000000000003E-10</v>
-      </c>
-      <c r="N18" s="11">
+        <v>9.7478991596638658E-7</v>
+      </c>
+      <c r="O18" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v>-I</v>
+      </c>
+      <c r="Q18" s="31">
         <f t="shared" si="2"/>
-        <v>2.3200000000000003</v>
-      </c>
-      <c r="O18" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>-I</v>
-      </c>
-      <c r="Q18" s="31">
-        <f t="shared" si="4"/>
         <v>0.99999999976800003</v>
       </c>
       <c r="R18" s="10">
@@ -5257,12 +5509,12 @@
         <v>0.99999999976800003</v>
       </c>
       <c r="S18" s="10">
-        <f t="shared" si="5"/>
-        <v>1.4800000000000001E-9</v>
+        <f t="shared" si="3"/>
+        <v>3.5224000000000002E-3</v>
       </c>
       <c r="T18" s="10">
         <f t="shared" si="7"/>
-        <v>1.4800000000000001E-9</v>
+        <v>3.5224000000000002E-3</v>
       </c>
       <c r="U18" s="9">
         <f t="array" ref="U18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -5276,12 +5528,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V18)</f>
         <v>-I</v>
       </c>
-      <c r="X18" s="12" t="b">
+      <c r="X18" s="9" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y18" s="9" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>16</v>
       </c>
@@ -5309,23 +5569,23 @@
       <c r="J19" s="10"/>
       <c r="K19" s="26"/>
       <c r="L19" s="31" t="str">
-        <f>IF($E19="Nee",0,IF(I19="Ja",IF(ISNUMBER(J19),J19,"-"),IF(ISNUMBER(G19),G19,"-")))</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="M19" s="10" t="str">
-        <f>IF($E19="Nee",0,IF(I19="Ja",IF(ISNUMBER(K19),K19,"-"),IF(ISNUMBER(H19),H19,"-")))</f>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="N19" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="O19" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v>D</v>
+      </c>
+      <c r="Q19" s="31" t="e">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="O19" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="Q19" s="31" t="e">
-        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="R19" s="10">
@@ -5333,7 +5593,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="T19" s="10">
@@ -5352,12 +5612,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V19)</f>
         <v>+III</v>
       </c>
-      <c r="X19" s="12" t="b">
+      <c r="X19" s="9" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y19" s="9" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
@@ -5389,23 +5657,23 @@
         <v>0</v>
       </c>
       <c r="L20" s="31">
-        <f t="shared" ref="L20:L22" si="10">IF($E20="Nee",0,IF(I20="Ja",IF(ISNUMBER(J20),J20,"-"),IF(ISNUMBER(G20),G20,"-")))</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.5</v>
       </c>
       <c r="M20" s="10">
-        <f t="shared" ref="M20:M22" si="11">IF($E20="Nee",0,IF(I20="Ja",IF(ISNUMBER(K20),K20,"-"),IF(ISNUMBER(H20),H20,"-")))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N20" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v>+III</v>
+      </c>
+      <c r="Q20" s="31">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>+III</v>
-      </c>
-      <c r="Q20" s="31">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="R20" s="10">
@@ -5413,12 +5681,12 @@
         <v>1</v>
       </c>
       <c r="S20" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>7.4</v>
       </c>
       <c r="T20" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="U20" s="9">
         <f t="array" ref="U20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -5432,12 +5700,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V20)</f>
         <v>+III</v>
       </c>
-      <c r="X20" s="12" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X20" s="9" t="b">
+        <f>IF($E20="Ja",IF($I20="Ja",OR(NOT(ISNUMBER($J20)),NOT(ISNUMBER($K20))),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="9" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
@@ -5457,7 +5733,7 @@
         <v>0.1</v>
       </c>
       <c r="H21" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.23199999999999998</v>
       </c>
       <c r="I21" s="8" t="s">
@@ -5470,23 +5746,23 @@
         <v>2.3200000000000003E-8</v>
       </c>
       <c r="L21" s="31">
-        <f t="shared" si="10"/>
-        <v>1E-8</v>
+        <f t="shared" si="4"/>
+        <v>0.1</v>
       </c>
       <c r="M21" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="0"/>
         <v>2.3200000000000003E-8</v>
       </c>
       <c r="N21" s="11">
+        <f t="shared" si="1"/>
+        <v>2.3200000000000001E-7</v>
+      </c>
+      <c r="O21" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v>-I</v>
+      </c>
+      <c r="Q21" s="31">
         <f t="shared" si="2"/>
-        <v>2.3200000000000003</v>
-      </c>
-      <c r="O21" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>-I</v>
-      </c>
-      <c r="Q21" s="31">
-        <f t="shared" si="4"/>
         <v>0.99999997679999997</v>
       </c>
       <c r="R21" s="10">
@@ -5494,12 +5770,12 @@
         <v>0.99999997679999997</v>
       </c>
       <c r="S21" s="10">
-        <f t="shared" si="5"/>
-        <v>1.48E-7</v>
+        <f t="shared" si="3"/>
+        <v>1.4800000000000002</v>
       </c>
       <c r="T21" s="10">
         <f t="shared" si="7"/>
-        <v>1.48E-7</v>
+        <v>1.4800000000000002</v>
       </c>
       <c r="U21" s="9">
         <f t="array" ref="U21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -5513,12 +5789,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V21)</f>
         <v>-I</v>
       </c>
-      <c r="X21" s="12" t="b">
+      <c r="X21" s="9" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y21" s="9" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>19</v>
       </c>
@@ -5538,7 +5822,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="H22" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.22968</v>
       </c>
       <c r="I22" s="8" t="s">
@@ -5551,23 +5835,23 @@
         <v>2.3200000000000003E-8</v>
       </c>
       <c r="L22" s="31">
-        <f t="shared" si="10"/>
-        <v>1E-8</v>
+        <f t="shared" si="4"/>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="M22" s="10">
-        <f t="shared" si="11"/>
+        <f>IF($Z22=TRUE,0,IF($Y22=TRUE,0,IF(I22="Ja",IF(ISNUMBER(K22),K22,"-"),IF(ISNUMBER(H22),H22,"-"))))</f>
         <v>2.3200000000000003E-8</v>
       </c>
       <c r="N22" s="11">
+        <f t="shared" si="1"/>
+        <v>2.3434343434343436E-7</v>
+      </c>
+      <c r="O22" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v>-I</v>
+      </c>
+      <c r="Q22" s="31">
         <f t="shared" si="2"/>
-        <v>2.3200000000000003</v>
-      </c>
-      <c r="O22" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>-I</v>
-      </c>
-      <c r="Q22" s="31">
-        <f t="shared" si="4"/>
         <v>0.99999997679999997</v>
       </c>
       <c r="R22" s="10">
@@ -5575,12 +5859,12 @@
         <v>0.99999997679999997</v>
       </c>
       <c r="S22" s="10">
-        <f t="shared" si="5"/>
-        <v>1.48E-7</v>
+        <f t="shared" si="3"/>
+        <v>1.4652000000000001</v>
       </c>
       <c r="T22" s="10">
         <f t="shared" si="7"/>
-        <v>1.48E-7</v>
+        <v>1.4652000000000001</v>
       </c>
       <c r="U22" s="9">
         <f t="array" ref="U22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -5594,12 +5878,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V22)</f>
         <v>-I</v>
       </c>
-      <c r="X22" s="12" t="b">
+      <c r="X22" s="9" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y22" s="9" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -5621,9 +5913,11 @@
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
       <c r="W23" s="9"/>
-      <c r="X23" s="12"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="12"/>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -5645,9 +5939,11 @@
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
       <c r="W24" s="9"/>
-      <c r="X24" s="12"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="12"/>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -5669,9 +5965,11 @@
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
-      <c r="X25" s="12"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="12"/>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -5693,9 +5991,11 @@
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
-      <c r="X26" s="12"/>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="12"/>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -5717,9 +6017,11 @@
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
-      <c r="X27" s="12"/>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="12"/>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -5741,9 +6043,11 @@
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
-      <c r="X28" s="12"/>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="12"/>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -5765,9 +6069,11 @@
       <c r="U29" s="9"/>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
-      <c r="X29" s="12"/>
-    </row>
-    <row r="30" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="12"/>
+    </row>
+    <row r="30" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -5789,33 +6095,35 @@
       <c r="U30" s="14"/>
       <c r="V30" s="14"/>
       <c r="W30" s="14"/>
-      <c r="X30" s="17"/>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="17"/>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="Q32" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11:H30">
-    <cfRule type="expression" dxfId="70" priority="11">
+    <cfRule type="expression" dxfId="79" priority="11">
       <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:K30">
-    <cfRule type="expression" dxfId="69" priority="10">
+    <cfRule type="expression" dxfId="78" priority="10">
       <formula>IF($I11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:O30">
-    <cfRule type="cellIs" dxfId="68" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5896,7 +6204,7 @@
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{16F18BE3-9053-456B-B64F-325B398B1C3F}">
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
@@ -5911,10 +6219,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4BDF32-8A22-4A66-B6B5-DB37648E7DC4}">
-  <dimension ref="B2:U73"/>
+  <dimension ref="B2:V27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5933,7 +6241,7 @@
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
@@ -5941,7 +6249,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="36" t="s">
         <v>44</v>
       </c>
@@ -5949,7 +6257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
         <v>109</v>
       </c>
@@ -5957,39 +6265,39 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="26">
-        <f>IFERROR(MIN(1-PRODUCT(M11:M71),MAX(O11:O71)),"GR")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+        <f>IFERROR(MIN(1-PRODUCT(M11:M16),MAX(O11:O16)),"GR")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="26">
-        <f>MIN(1-PRODUCT(N11:N71),MAX(P11:P71))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f>MIN(1-PRODUCT(N11:N16),MAX(P11:P16))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="41" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="17" t="str">
-        <f>IF(1-PRODUCT(N11:N71)&gt;MAX(P11:P71),"Ja","Nee")</f>
+        <f>IF(1-PRODUCT(N11:N16)&gt;MAX(P11:P16),"Ja","Nee")</f>
         <v>Nee</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
         <v>0</v>
       </c>
@@ -6040,12 +6348,17 @@
         <v>63</v>
       </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="39" t="s">
+      <c r="T10" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="U10" s="35"/>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U10" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="V10" s="39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>105</v>
       </c>
@@ -6067,11 +6380,11 @@
       </c>
       <c r="I11" s="25"/>
       <c r="J11" s="5">
-        <f>IF($E11="Nee",0,IF(ISNUMBER(I11),I11,IF(ISNUMBER(G11),G11,"-")))</f>
+        <f>IF($V11=TRUE,0,IF($U11=TRUE,0,IF(H11="Ja",IF(ISNUMBER(I11),I11,"-"),IF(ISNUMBER(G11),G11,"-"))))</f>
         <v>0</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f>IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
+        <f>IF($V11=TRUE,"NR",IF($U11=TRUE,"ND",IF($T11=TRUE,"D",S11)))</f>
         <v>NR</v>
       </c>
       <c r="M11" s="31">
@@ -6102,12 +6415,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R11)</f>
         <v>-I</v>
       </c>
-      <c r="T11" s="12" t="b">
+      <c r="T11" s="9" t="b">
         <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U11" s="9" t="b">
+        <f>IF($E11="Ja",IF($H11="Nee",NOT(ISNUMBER($G11)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="12" t="b">
+        <f>IF(E11="Nee",TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -6125,9 +6446,11 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
-      <c r="T12" s="12"/>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="12"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -6145,9 +6468,11 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
-      <c r="T13" s="12"/>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="12"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -6165,9 +6490,11 @@
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
-      <c r="T14" s="12"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="12"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -6185,1153 +6512,183 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
-      <c r="T15" s="12"/>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="32"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="12"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="32"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="12"/>
+    </row>
+    <row r="16" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="34"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="17"/>
+    </row>
+    <row r="17" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M17" s="10"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
-      <c r="T17" s="12"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="32"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+    </row>
+    <row r="18" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M18" s="10"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
-      <c r="T18" s="12"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="32"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+    </row>
+    <row r="19" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
-      <c r="T19" s="12"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="32"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+    </row>
+    <row r="20" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
-      <c r="T20" s="12"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="32"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+    </row>
+    <row r="21" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
-      <c r="T21" s="12"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="32"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+    </row>
+    <row r="22" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
-      <c r="T22" s="12"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="32"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+    </row>
+    <row r="23" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
-      <c r="T23" s="12"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="32"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+    </row>
+    <row r="24" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
-      <c r="T24" s="12"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="32"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+    </row>
+    <row r="25" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
-      <c r="T25" s="12"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="32"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+    </row>
+    <row r="26" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
-      <c r="T26" s="12"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="32"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+    </row>
+    <row r="27" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
-      <c r="T27" s="12"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="32"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="12"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="32"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="12"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="32"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="12"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="32"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="12"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="32"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="12"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="32"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="12"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="32"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="12"/>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="32"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="12"/>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="32"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="12"/>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="32"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="12"/>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="32"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="12"/>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="32"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="12"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="8"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="32"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="12"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B41" s="8"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="32"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="12"/>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B42" s="8"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="32"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="12"/>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B43" s="8"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="32"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="12"/>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B44" s="8"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="32"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="12"/>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="32"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="12"/>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B46" s="8"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="32"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="12"/>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B47" s="8"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="32"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="12"/>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B48" s="8"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="32"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="12"/>
-    </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B49" s="8"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="32"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="12"/>
-    </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B50" s="8"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="32"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="12"/>
-    </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B51" s="8"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="32"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="12"/>
-    </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B52" s="8"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="32"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="12"/>
-    </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B53" s="8"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="32"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="12"/>
-    </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B54" s="8"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="32"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="12"/>
-    </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B55" s="8"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="32"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="9"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="12"/>
-    </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B56" s="8"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="32"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="12"/>
-    </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B57" s="8"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="32"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="9"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="12"/>
-    </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B58" s="8"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="32"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="9"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="12"/>
-    </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B59" s="8"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="32"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="9"/>
-      <c r="S59" s="9"/>
-      <c r="T59" s="12"/>
-    </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B60" s="8"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="32"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="9"/>
-      <c r="R60" s="9"/>
-      <c r="S60" s="9"/>
-      <c r="T60" s="12"/>
-    </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B61" s="8"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="32"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="9"/>
-      <c r="S61" s="9"/>
-      <c r="T61" s="12"/>
-    </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B62" s="8"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="32"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
-      <c r="T62" s="12"/>
-    </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B63" s="8"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="32"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="9"/>
-      <c r="R63" s="9"/>
-      <c r="S63" s="9"/>
-      <c r="T63" s="12"/>
-    </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B64" s="8"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="32"/>
-      <c r="M64" s="31"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="9"/>
-      <c r="S64" s="9"/>
-      <c r="T64" s="12"/>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B65" s="8"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="32"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="12"/>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B66" s="8"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="32"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="12"/>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B67" s="8"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="32"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="9"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="12"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B68" s="8"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="32"/>
-      <c r="M68" s="31"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="9"/>
-      <c r="S68" s="9"/>
-      <c r="T68" s="12"/>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B69" s="8"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="32"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="12"/>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B70" s="8"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="32"/>
-      <c r="M70" s="31"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="9"/>
-      <c r="R70" s="9"/>
-      <c r="S70" s="9"/>
-      <c r="T70" s="12"/>
-    </row>
-    <row r="71" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="13"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="34"/>
-      <c r="M71" s="33"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="15"/>
-      <c r="Q71" s="14"/>
-      <c r="R71" s="14"/>
-      <c r="S71" s="14"/>
-      <c r="T71" s="17"/>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="M72" s="1"/>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="M73" s="1"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G11:G71">
-    <cfRule type="expression" dxfId="59" priority="11">
+  <conditionalFormatting sqref="G11:G16">
+    <cfRule type="expression" dxfId="68" priority="11">
       <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I71">
-    <cfRule type="expression" dxfId="58" priority="10">
+  <conditionalFormatting sqref="I11:I16">
+    <cfRule type="expression" dxfId="67" priority="10">
       <formula>IF($H11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K71">
-    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
+  <conditionalFormatting sqref="K11:K16">
+    <cfRule type="cellIs" dxfId="66" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7407,7 +6764,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K11:K71</xm:sqref>
+          <xm:sqref>K11:K16</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7417,7 +6774,7 @@
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E72:E87 F11:F71</xm:sqref>
+          <xm:sqref>E17:E32 F11:F16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7427,10 +6784,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFA3C0E-3A5C-4A61-A32F-6BC05AD0EB33}">
-  <dimension ref="B2:U13"/>
+  <dimension ref="B2:V28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="J11" sqref="J11:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7450,7 +6807,7 @@
     <col min="19" max="19" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
@@ -7458,7 +6815,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="36" t="s">
         <v>44</v>
       </c>
@@ -7466,7 +6823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
         <v>109</v>
       </c>
@@ -7474,7 +6831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
         <v>47</v>
       </c>
@@ -7483,7 +6840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
         <v>41</v>
       </c>
@@ -7492,7 +6849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="41" t="s">
         <v>48</v>
       </c>
@@ -7501,12 +6858,12 @@
         <v>Nee</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
         <v>0</v>
       </c>
@@ -7557,12 +6914,17 @@
         <v>63</v>
       </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="39" t="s">
+      <c r="T10" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="U10" s="35"/>
-    </row>
-    <row r="11" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U10" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="V10" s="39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="42" t="s">
         <v>8</v>
       </c>
@@ -7584,10 +6946,11 @@
       </c>
       <c r="I11" s="45"/>
       <c r="J11" s="46">
+        <f>IF($V11=TRUE,0,IF($U11=TRUE,0,IF(H11="Ja",IF(ISNUMBER(I11),I11,"-"),IF(ISNUMBER(G11),G11,"-"))))</f>
         <v>0</v>
       </c>
       <c r="K11" s="47" t="str">
-        <f>IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
+        <f>IF($V11=TRUE,"NR",IF($U11=TRUE,"ND",IF($T11=TRUE,"D",S11)))</f>
         <v>NR</v>
       </c>
       <c r="M11" s="33">
@@ -7618,36 +6981,242 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R11)</f>
         <v>-I</v>
       </c>
-      <c r="T11" s="17" t="b">
+      <c r="T11" s="14" t="b">
         <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER(#REF!)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="M13" s="1"/>
+      <c r="U11" s="14" t="b">
+        <f>IF($E11="Ja",IF($H11="Nee",NOT(ISNUMBER($G11)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="17" t="b">
+        <f>IF(E11="Nee",TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="M12" s="10"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="M13" s="10"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+    </row>
+    <row r="17" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+    </row>
+    <row r="18" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+    </row>
+    <row r="19" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+    </row>
+    <row r="20" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+    </row>
+    <row r="21" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+    </row>
+    <row r="22" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+    </row>
+    <row r="23" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+    </row>
+    <row r="24" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+    </row>
+    <row r="25" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+    </row>
+    <row r="26" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+    </row>
+    <row r="27" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+    </row>
+    <row r="28" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="48" priority="11">
+    <cfRule type="expression" dxfId="57" priority="11">
       <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="47" priority="10">
+    <cfRule type="expression" dxfId="56" priority="10">
       <formula>IF($H11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7749,10 +7318,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4337BDE-5D5C-4814-877A-41AF49DBDF5F}">
-  <dimension ref="B2:U30"/>
+  <dimension ref="B2:V30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:K22"/>
+      <selection activeCell="J11" sqref="J11:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7771,7 +7340,7 @@
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
@@ -7779,7 +7348,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="36" t="s">
         <v>44</v>
       </c>
@@ -7787,7 +7356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
         <v>109</v>
       </c>
@@ -7795,7 +7364,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
         <v>47</v>
       </c>
@@ -7804,7 +7373,7 @@
         <v>1.9961410016728909E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
         <v>41</v>
       </c>
@@ -7813,7 +7382,7 @@
         <v>1.9961410016728909E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="41" t="s">
         <v>48</v>
       </c>
@@ -7822,12 +7391,12 @@
         <v>Nee</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
         <v>0</v>
       </c>
@@ -7878,12 +7447,17 @@
         <v>63</v>
       </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="39" t="s">
+      <c r="T10" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="U10" s="35"/>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U10" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="V10" s="39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -7904,24 +7478,24 @@
         <v>21</v>
       </c>
       <c r="I11" s="25"/>
-      <c r="J11" s="5" t="str">
-        <f t="shared" ref="J11:J22" si="0">IF($E11="Nee",0,IF(H11="Ja",IF(ISNUMBER(I11),I11,"-"),IF(ISNUMBER(G11),G11,"-")))</f>
-        <v>-</v>
+      <c r="J11" s="5">
+        <f>IF($V11=TRUE,0,IF($U11=TRUE,0,IF(H11="Ja",IF(ISNUMBER(I11),I11,"-"),IF(ISNUMBER(G11),G11,"-"))))</f>
+        <v>0</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f t="shared" ref="K11:K22" si="1">IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
+        <f>IF($V11=TRUE,"NR",IF($U11=TRUE,"ND",IF($T11=TRUE,"D",S11)))</f>
         <v>ND</v>
       </c>
       <c r="M11" s="31">
-        <f t="shared" ref="M11:M12" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <f t="shared" ref="M11:M12" si="0">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" ref="N11:N12" si="3">IF(J11="-",1,M11)</f>
+        <f t="shared" ref="N11:N12" si="1">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" ref="O11:O12" si="4">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <f t="shared" ref="O11:O12" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P11" s="10">
@@ -7940,12 +7514,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R11)</f>
         <v>+III</v>
       </c>
-      <c r="T11" s="12" t="b">
+      <c r="T11" s="9" t="b">
         <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U11" s="9" t="b">
+        <f>IF($E11="Ja",IF($H11="Nee",NOT(ISNUMBER($G11)),FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="V11" s="12" t="b">
+        <f>IF(E11="Nee",TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
@@ -7971,27 +7553,27 @@
         <v>0</v>
       </c>
       <c r="J12" s="10">
+        <f>IF($V12=TRUE,0,IF($U12=TRUE,0,IF(H12="Ja",IF(ISNUMBER(I12),I12,"-"),IF(ISNUMBER(G12),G12,"-"))))</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="32" t="str">
+        <f>IF($V12=TRUE,"NR",IF($U12=TRUE,"ND",IF($T12=TRUE,"D",S12)))</f>
+        <v>+III</v>
+      </c>
+      <c r="M12" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="N12" s="10">
         <f t="shared" si="1"/>
-        <v>+III</v>
-      </c>
-      <c r="M12" s="31">
+        <v>1</v>
+      </c>
+      <c r="O12" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N12" s="10">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O12" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" ref="P12:P13" si="5">IF(J12="-",0,O12)</f>
+        <f t="shared" ref="P12:P13" si="3">IF(J12="-",0,O12)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="9">
@@ -8006,12 +7588,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R12)</f>
         <v>+III</v>
       </c>
-      <c r="T12" s="12" t="b">
-        <f t="shared" ref="T12:T22" si="6">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="T12" s="9" t="b">
+        <f t="shared" ref="T12:T22" si="4">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="9" t="b">
+        <f t="shared" ref="U12:U22" si="5">IF($E12="Ja",IF($H12="Nee",NOT(ISNUMBER($G12)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="12" t="b">
+        <f t="shared" ref="V12:V22" si="6">IF(E12="Nee",TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
@@ -8037,11 +7627,11 @@
         <v>5.9999999999999997E-7</v>
       </c>
       <c r="J13" s="10">
-        <f t="shared" si="0"/>
+        <f>IF($V13=TRUE,0,IF($U13=TRUE,0,IF(H13="Ja",IF(ISNUMBER(I13),I13,"-"),IF(ISNUMBER(G13),G13,"-"))))</f>
         <v>5.9999999999999997E-7</v>
       </c>
       <c r="K13" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($V13=TRUE,"NR",IF($U13=TRUE,"ND",IF($T13=TRUE,"D",S13)))</f>
         <v>-I</v>
       </c>
       <c r="M13" s="31">
@@ -8057,7 +7647,7 @@
         <v>1.7999999999999999E-6</v>
       </c>
       <c r="P13" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.7999999999999999E-6</v>
       </c>
       <c r="Q13" s="9">
@@ -8072,12 +7662,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R13)</f>
         <v>-I</v>
       </c>
-      <c r="T13" s="12" t="b">
+      <c r="T13" s="9" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="9" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="12" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
@@ -8101,11 +7699,11 @@
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="10">
-        <f t="shared" si="0"/>
+        <f>IF($V14=TRUE,0,IF($U14=TRUE,0,IF(H14="Ja",IF(ISNUMBER(I14),I14,"-"),IF(ISNUMBER(G14),G14,"-"))))</f>
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="K14" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($V14=TRUE,"NR",IF($U14=TRUE,"ND",IF($T14=TRUE,"D",S14)))</f>
         <v>-I</v>
       </c>
       <c r="M14" s="31">
@@ -8136,12 +7734,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R14)</f>
         <v>-I</v>
       </c>
-      <c r="T14" s="12" t="b">
+      <c r="T14" s="9" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="9" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="12" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
@@ -8167,11 +7773,11 @@
         <v>8.0000000000000005E-9</v>
       </c>
       <c r="J15" s="10">
-        <f t="shared" si="0"/>
+        <f>IF($V15=TRUE,0,IF($U15=TRUE,0,IF(H15="Ja",IF(ISNUMBER(I15),I15,"-"),IF(ISNUMBER(G15),G15,"-"))))</f>
         <v>8.0000000000000005E-9</v>
       </c>
       <c r="K15" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($V15=TRUE,"NR",IF($U15=TRUE,"ND",IF($T15=TRUE,"D",S15)))</f>
         <v>-I</v>
       </c>
       <c r="M15" s="31">
@@ -8202,12 +7808,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R15)</f>
         <v>-I</v>
       </c>
-      <c r="T15" s="12" t="b">
+      <c r="T15" s="9" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="9" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="12" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
@@ -8233,11 +7847,11 @@
         <v>0</v>
       </c>
       <c r="J16" s="10">
-        <f t="shared" si="0"/>
+        <f>IF($V16=TRUE,0,IF($U16=TRUE,0,IF(H16="Ja",IF(ISNUMBER(I16),I16,"-"),IF(ISNUMBER(G16),G16,"-"))))</f>
         <v>0</v>
       </c>
       <c r="K16" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($V16=TRUE,"NR",IF($U16=TRUE,"ND",IF($T16=TRUE,"D",S16)))</f>
         <v>+III</v>
       </c>
       <c r="M16" s="31">
@@ -8268,12 +7882,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
         <v>+III</v>
       </c>
-      <c r="T16" s="12" t="b">
+      <c r="T16" s="9" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="9" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="12" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>14</v>
       </c>
@@ -8299,11 +7921,11 @@
         <v>2.546E-5</v>
       </c>
       <c r="J17" s="10">
-        <f t="shared" si="0"/>
+        <f>IF($V17=TRUE,0,IF($U17=TRUE,0,IF(H17="Ja",IF(ISNUMBER(I17),I17,"-"),IF(ISNUMBER(G17),G17,"-"))))</f>
         <v>2.546E-5</v>
       </c>
       <c r="K17" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($V17=TRUE,"NR",IF($U17=TRUE,"ND",IF($T17=TRUE,"D",S17)))</f>
         <v>-I</v>
       </c>
       <c r="M17" s="31">
@@ -8334,12 +7956,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R17)</f>
         <v>-I</v>
       </c>
-      <c r="T17" s="12" t="b">
+      <c r="T17" s="9" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="9" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="12" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>15</v>
       </c>
@@ -8363,11 +7993,11 @@
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="10">
-        <f t="shared" si="0"/>
+        <f>IF($V18=TRUE,0,IF($U18=TRUE,0,IF(H18="Ja",IF(ISNUMBER(I18),I18,"-"),IF(ISNUMBER(G18),G18,"-"))))</f>
         <v>6.6600000000000003E-4</v>
       </c>
       <c r="K18" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($V18=TRUE,"NR",IF($U18=TRUE,"ND",IF($T18=TRUE,"D",S18)))</f>
         <v>-I</v>
       </c>
       <c r="M18" s="31">
@@ -8398,12 +8028,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
         <v>-I</v>
       </c>
-      <c r="T18" s="12" t="b">
+      <c r="T18" s="9" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="9" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="12" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>16</v>
       </c>
@@ -8429,11 +8067,11 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="J19" s="10">
-        <f t="shared" si="0"/>
+        <f>IF($V19=TRUE,0,IF($U19=TRUE,0,IF(H19="Ja",IF(ISNUMBER(I19),I19,"-"),IF(ISNUMBER(G19),G19,"-"))))</f>
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="K19" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($V19=TRUE,"NR",IF($U19=TRUE,"ND",IF($T19=TRUE,"D",S19)))</f>
         <v>-I</v>
       </c>
       <c r="M19" s="31">
@@ -8464,12 +8102,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R19)</f>
         <v>-I</v>
       </c>
-      <c r="T19" s="12" t="b">
+      <c r="T19" s="9" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="9" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="12" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
@@ -8493,11 +8139,11 @@
       </c>
       <c r="I20" s="26"/>
       <c r="J20" s="10">
-        <f t="shared" si="0"/>
+        <f>IF($V20=TRUE,0,IF($U20=TRUE,0,IF(H20="Ja",IF(ISNUMBER(I20),I20,"-"),IF(ISNUMBER(G20),G20,"-"))))</f>
         <v>0</v>
       </c>
       <c r="K20" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($V20=TRUE,"NR",IF($U20=TRUE,"ND",IF($T20=TRUE,"D",S20)))</f>
         <v>+III</v>
       </c>
       <c r="M20" s="31">
@@ -8528,12 +8174,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R20)</f>
         <v>+III</v>
       </c>
-      <c r="T20" s="12" t="b">
+      <c r="T20" s="9" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="9" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="12" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
@@ -8559,11 +8213,11 @@
         <v>0</v>
       </c>
       <c r="J21" s="10">
-        <f t="shared" si="0"/>
+        <f>IF($V21=TRUE,0,IF($U21=TRUE,0,IF(H21="Ja",IF(ISNUMBER(I21),I21,"-"),IF(ISNUMBER(G21),G21,"-"))))</f>
         <v>0</v>
       </c>
       <c r="K21" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($V21=TRUE,"NR",IF($U21=TRUE,"ND",IF($T21=TRUE,"D",S21)))</f>
         <v>+III</v>
       </c>
       <c r="M21" s="31">
@@ -8594,12 +8248,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R21)</f>
         <v>+III</v>
       </c>
-      <c r="T21" s="12" t="b">
+      <c r="T21" s="9" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="9" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="12" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>19</v>
       </c>
@@ -8621,11 +8283,11 @@
       </c>
       <c r="I22" s="26"/>
       <c r="J22" s="10">
-        <f t="shared" si="0"/>
+        <f>IF($V22=TRUE,0,IF($U22=TRUE,0,IF(H22="Ja",IF(ISNUMBER(I22),I22,"-"),IF(ISNUMBER(G22),G22,"-"))))</f>
         <v>0</v>
       </c>
       <c r="K22" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($V22=TRUE,"NR",IF($U22=TRUE,"ND",IF($T22=TRUE,"D",S22)))</f>
         <v>NR</v>
       </c>
       <c r="M22" s="31">
@@ -8656,12 +8318,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R22)</f>
         <v>+III</v>
       </c>
-      <c r="T22" s="12" t="b">
+      <c r="T22" s="9" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="9" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="12" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -8679,9 +8349,11 @@
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
-      <c r="T23" s="12"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="12"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -8699,9 +8371,11 @@
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
-      <c r="T24" s="12"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="12"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -8719,9 +8393,11 @@
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
-      <c r="T25" s="12"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="12"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -8739,9 +8415,11 @@
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
-      <c r="T26" s="12"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="12"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -8759,9 +8437,11 @@
       <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
-      <c r="T27" s="12"/>
-    </row>
-    <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="12"/>
+    </row>
+    <row r="28" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -8772,40 +8452,42 @@
       <c r="I28" s="27"/>
       <c r="J28" s="15"/>
       <c r="K28" s="34"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="12"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M28" s="33"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="17"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="M30" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11:G28">
-    <cfRule type="expression" dxfId="37" priority="5">
+    <cfRule type="expression" dxfId="46" priority="5">
       <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I28">
-    <cfRule type="expression" dxfId="36" priority="4">
+    <cfRule type="expression" dxfId="45" priority="4">
       <formula>IF($H11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K28">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8901,10 +8583,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A4475A-3782-4C92-8ED6-63AC240A6132}">
-  <dimension ref="B2:U30"/>
+  <dimension ref="B2:V30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="J11" sqref="J11:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8923,7 +8605,7 @@
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
@@ -8931,7 +8613,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="36" t="s">
         <v>44</v>
       </c>
@@ -8939,7 +8621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
         <v>109</v>
       </c>
@@ -8947,7 +8629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
         <v>47</v>
       </c>
@@ -8956,7 +8638,7 @@
         <v>GR</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
         <v>41</v>
       </c>
@@ -8965,7 +8647,7 @@
         <v>3.2699999999999999E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="41" t="s">
         <v>48</v>
       </c>
@@ -8974,12 +8656,12 @@
         <v>Ja</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
         <v>0</v>
       </c>
@@ -9030,12 +8712,17 @@
         <v>63</v>
       </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="U10" s="35"/>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="T10" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="U10" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="V10" s="48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -9057,23 +8744,23 @@
       </c>
       <c r="I11" s="25"/>
       <c r="J11" s="5">
-        <f t="shared" ref="J11:J18" si="0">IF($E11="Nee",0,IF(H11="Ja",IF(ISNUMBER(I11),I11,"-"),IF(ISNUMBER(G11),G11,"-")))</f>
+        <f>IF($V11=TRUE,0,IF($U11=TRUE,0,IF(H11="Ja",IF(ISNUMBER(I11),I11,"-"),IF(ISNUMBER(G11),G11,"-"))))</f>
         <v>0</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f t="shared" ref="K11:K22" si="1">IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
+        <f>IF($V11=TRUE,"NR",IF($U11=TRUE,"ND",IF($T11=TRUE,"D",S11)))</f>
         <v>NR</v>
       </c>
       <c r="M11" s="31">
-        <f t="shared" ref="M11" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <f t="shared" ref="M11" si="0">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" ref="N11" si="3">IF(J11="-",1,M11)</f>
+        <f t="shared" ref="N11" si="1">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" ref="O11" si="4">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <f t="shared" ref="O11" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P11" s="10">
@@ -9092,12 +8779,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R11)</f>
         <v>+III</v>
       </c>
-      <c r="T11" s="12" t="b">
+      <c r="T11" s="9" t="b">
         <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U11" s="9" t="b">
+        <f>IF($E11="Ja",IF($H11="Nee",NOT(ISNUMBER($G11)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="12" t="b">
+        <f>IF(E11="Nee",TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
@@ -9118,28 +8813,28 @@
         <v>21</v>
       </c>
       <c r="I12" s="26"/>
-      <c r="J12" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+      <c r="J12" s="10">
+        <f>IF($V12=TRUE,0,IF($U12=TRUE,0,IF(H12="Ja",IF(ISNUMBER(I12),I12,"-"),IF(ISNUMBER(G12),G12,"-"))))</f>
+        <v>0</v>
       </c>
       <c r="K12" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($V12=TRUE,"NR",IF($U12=TRUE,"ND",IF($T12=TRUE,"D",S12)))</f>
         <v>ND</v>
       </c>
       <c r="M12" s="31">
-        <f t="shared" ref="M12:M22" si="5">IF(AND(F12="Geen faalkans",H12="Nee"),1,1-J12)</f>
+        <f t="shared" ref="M12:M22" si="3">IF(AND(F12="Geen faalkans",H12="Nee"),1,1-J12)</f>
         <v>1</v>
       </c>
       <c r="N12" s="10">
-        <f t="shared" ref="N12:N22" si="6">IF(J12="-",1,M12)</f>
+        <f t="shared" ref="N12:N22" si="4">IF(J12="-",1,M12)</f>
         <v>1</v>
       </c>
       <c r="O12" s="10">
-        <f t="shared" ref="O12:O22" si="7">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
+        <f t="shared" ref="O12:O22" si="5">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" ref="P12:P22" si="8">IF(J12="-",0,O12)</f>
+        <f t="shared" ref="P12:P22" si="6">IF(J12="-",0,O12)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="9">
@@ -9154,12 +8849,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R12)</f>
         <v>+III</v>
       </c>
-      <c r="T12" s="12" t="b">
-        <f t="shared" ref="T12:T22" si="9">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="T12" s="9" t="b">
+        <f t="shared" ref="T12:T22" si="7">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="9" t="b">
+        <f t="shared" ref="U12:U22" si="8">IF($E12="Ja",IF($H12="Nee",NOT(ISNUMBER($G12)),FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="V12" s="12" t="b">
+        <f t="shared" ref="V12:V22" si="9">IF(E12="Nee",TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
@@ -9185,27 +8888,27 @@
         <v>0</v>
       </c>
       <c r="J13" s="10">
-        <f t="shared" si="0"/>
+        <f>IF($V13=TRUE,0,IF($U13=TRUE,0,IF(H13="Ja",IF(ISNUMBER(I13),I13,"-"),IF(ISNUMBER(G13),G13,"-"))))</f>
         <v>0</v>
       </c>
       <c r="K13" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($V13=TRUE,"NR",IF($U13=TRUE,"ND",IF($T13=TRUE,"D",S13)))</f>
         <v>+III</v>
       </c>
       <c r="M13" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N13" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N13" s="10">
+        <v>0</v>
+      </c>
+      <c r="P13" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O13" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="10">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q13" s="9">
@@ -9220,12 +8923,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R13)</f>
         <v>+III</v>
       </c>
-      <c r="T13" s="12" t="b">
+      <c r="T13" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="9" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="12" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
@@ -9249,27 +8960,27 @@
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="10">
-        <f t="shared" si="0"/>
+        <f>IF($V14=TRUE,0,IF($U14=TRUE,0,IF(H14="Ja",IF(ISNUMBER(I14),I14,"-"),IF(ISNUMBER(G14),G14,"-"))))</f>
         <v>2.2800000000000001E-4</v>
       </c>
       <c r="K14" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($V14=TRUE,"NR",IF($U14=TRUE,"ND",IF($T14=TRUE,"D",S14)))</f>
         <v>-I</v>
       </c>
       <c r="M14" s="31">
+        <f t="shared" si="3"/>
+        <v>0.99977199999999999</v>
+      </c>
+      <c r="N14" s="10">
+        <f t="shared" si="4"/>
+        <v>0.99977199999999999</v>
+      </c>
+      <c r="O14" s="10">
         <f t="shared" si="5"/>
-        <v>0.99977199999999999</v>
-      </c>
-      <c r="N14" s="10">
+        <v>2.2800000000000001E-4</v>
+      </c>
+      <c r="P14" s="10">
         <f t="shared" si="6"/>
-        <v>0.99977199999999999</v>
-      </c>
-      <c r="O14" s="10">
-        <f t="shared" si="7"/>
-        <v>2.2800000000000001E-4</v>
-      </c>
-      <c r="P14" s="10">
-        <f t="shared" si="8"/>
         <v>2.2800000000000001E-4</v>
       </c>
       <c r="Q14" s="9">
@@ -9284,12 +8995,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R14)</f>
         <v>-I</v>
       </c>
-      <c r="T14" s="12" t="b">
+      <c r="T14" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="9" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="12" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
@@ -9315,27 +9034,27 @@
         <v>3.2699999999999999E-3</v>
       </c>
       <c r="J15" s="10">
-        <f t="shared" si="0"/>
+        <f>IF($V15=TRUE,0,IF($U15=TRUE,0,IF(H15="Ja",IF(ISNUMBER(I15),I15,"-"),IF(ISNUMBER(G15),G15,"-"))))</f>
         <v>3.2699999999999999E-3</v>
       </c>
       <c r="K15" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($V15=TRUE,"NR",IF($U15=TRUE,"ND",IF($T15=TRUE,"D",S15)))</f>
         <v>-I</v>
       </c>
       <c r="M15" s="31">
+        <f t="shared" si="3"/>
+        <v>0.99673</v>
+      </c>
+      <c r="N15" s="10">
+        <f t="shared" si="4"/>
+        <v>0.99673</v>
+      </c>
+      <c r="O15" s="10">
         <f t="shared" si="5"/>
-        <v>0.99673</v>
-      </c>
-      <c r="N15" s="10">
+        <v>3.2699999999999999E-3</v>
+      </c>
+      <c r="P15" s="10">
         <f t="shared" si="6"/>
-        <v>0.99673</v>
-      </c>
-      <c r="O15" s="10">
-        <f t="shared" si="7"/>
-        <v>3.2699999999999999E-3</v>
-      </c>
-      <c r="P15" s="10">
-        <f t="shared" si="8"/>
         <v>3.2699999999999999E-3</v>
       </c>
       <c r="Q15" s="9">
@@ -9350,12 +9069,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R15)</f>
         <v>-I</v>
       </c>
-      <c r="T15" s="12" t="b">
+      <c r="T15" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="9" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="12" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
@@ -9377,27 +9104,27 @@
       </c>
       <c r="I16" s="26"/>
       <c r="J16" s="10">
-        <f t="shared" si="0"/>
+        <f>IF($V16=TRUE,0,IF($U16=TRUE,0,IF(H16="Ja",IF(ISNUMBER(I16),I16,"-"),IF(ISNUMBER(G16),G16,"-"))))</f>
         <v>0</v>
       </c>
       <c r="K16" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($V16=TRUE,"NR",IF($U16=TRUE,"ND",IF($T16=TRUE,"D",S16)))</f>
         <v>NR</v>
       </c>
       <c r="M16" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O16" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N16" s="10">
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O16" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="10">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q16" s="9">
@@ -9412,12 +9139,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
         <v>+III</v>
       </c>
-      <c r="T16" s="12" t="b">
+      <c r="T16" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="9" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="12" t="b">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>14</v>
       </c>
@@ -9439,27 +9174,27 @@
       </c>
       <c r="I17" s="26"/>
       <c r="J17" s="10">
-        <f t="shared" si="0"/>
+        <f>IF($V17=TRUE,0,IF($U17=TRUE,0,IF(H17="Ja",IF(ISNUMBER(I17),I17,"-"),IF(ISNUMBER(G17),G17,"-"))))</f>
         <v>0</v>
       </c>
       <c r="K17" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($V17=TRUE,"NR",IF($U17=TRUE,"ND",IF($T17=TRUE,"D",S17)))</f>
         <v>NR</v>
       </c>
       <c r="M17" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N17" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O17" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N17" s="10">
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="10">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q17" s="9">
@@ -9474,12 +9209,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R17)</f>
         <v>+III</v>
       </c>
-      <c r="T17" s="12" t="b">
+      <c r="T17" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="9" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="12" t="b">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>15</v>
       </c>
@@ -9503,27 +9246,27 @@
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="10">
-        <f t="shared" si="0"/>
+        <f>IF($V18=TRUE,0,IF($U18=TRUE,0,IF(H18="Ja",IF(ISNUMBER(I18),I18,"-"),IF(ISNUMBER(G18),G18,"-"))))</f>
         <v>0</v>
       </c>
       <c r="K18" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($V18=TRUE,"NR",IF($U18=TRUE,"ND",IF($T18=TRUE,"D",S18)))</f>
         <v>+III</v>
       </c>
       <c r="M18" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N18" s="10">
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O18" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="10">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q18" s="9">
@@ -9538,12 +9281,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
         <v>+III</v>
       </c>
-      <c r="T18" s="12" t="b">
+      <c r="T18" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="9" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="12" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>16</v>
       </c>
@@ -9567,27 +9318,27 @@
       </c>
       <c r="I19" s="26"/>
       <c r="J19" s="10" t="str">
-        <f>IF($E19="Nee",0,IF(H19="Ja",IF(ISNUMBER(I19),I19,"-"),IF(ISNUMBER(G19),G19,"-")))</f>
+        <f>IF($V19=TRUE,0,IF($U19=TRUE,0,IF(H19="Ja",IF(ISNUMBER(I19),I19,"-"),IF(ISNUMBER(G19),G19,"-"))))</f>
         <v>-</v>
       </c>
       <c r="K19" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($V19=TRUE,"NR",IF($U19=TRUE,"ND",IF($T19=TRUE,"D",S19)))</f>
         <v>D</v>
       </c>
       <c r="M19" s="31" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="10" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N19" s="10">
+      <c r="P19" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P19" s="10">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q19" s="9">
@@ -9602,12 +9353,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R19)</f>
         <v>+III</v>
       </c>
-      <c r="T19" s="12" t="b">
+      <c r="T19" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U19" s="9" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="12" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
@@ -9631,27 +9390,27 @@
       </c>
       <c r="I20" s="26"/>
       <c r="J20" s="10">
-        <f t="shared" ref="J20:J22" si="10">IF($E20="Nee",0,IF(H20="Ja",IF(ISNUMBER(I20),I20,"-"),IF(ISNUMBER(G20),G20,"-")))</f>
+        <f>IF($V20=TRUE,0,IF($U20=TRUE,0,IF(H20="Ja",IF(ISNUMBER(I20),I20,"-"),IF(ISNUMBER(G20),G20,"-"))))</f>
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="K20" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($V20=TRUE,"NR",IF($U20=TRUE,"ND",IF($T20=TRUE,"D",S20)))</f>
         <v>-I</v>
       </c>
       <c r="M20" s="31">
+        <f t="shared" si="3"/>
+        <v>0.99999800000000005</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" si="4"/>
+        <v>0.99999800000000005</v>
+      </c>
+      <c r="O20" s="10">
         <f t="shared" si="5"/>
-        <v>0.99999800000000005</v>
-      </c>
-      <c r="N20" s="10">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="P20" s="10">
         <f t="shared" si="6"/>
-        <v>0.99999800000000005</v>
-      </c>
-      <c r="O20" s="10">
-        <f t="shared" si="7"/>
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="P20" s="10">
-        <f t="shared" si="8"/>
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="Q20" s="9">
@@ -9666,12 +9425,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R20)</f>
         <v>-I</v>
       </c>
-      <c r="T20" s="12" t="b">
+      <c r="T20" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="9" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="12" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
@@ -9697,27 +9464,27 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J21" s="10">
-        <f t="shared" si="10"/>
+        <f>IF($V21=TRUE,0,IF($U21=TRUE,0,IF(H21="Ja",IF(ISNUMBER(I21),I21,"-"),IF(ISNUMBER(G21),G21,"-"))))</f>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K21" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($V21=TRUE,"NR",IF($U21=TRUE,"ND",IF($T21=TRUE,"D",S21)))</f>
         <v>-I</v>
       </c>
       <c r="M21" s="31">
+        <f t="shared" si="3"/>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" si="4"/>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="O21" s="10">
         <f t="shared" si="5"/>
-        <v>0.99950000000000006</v>
-      </c>
-      <c r="N21" s="10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="P21" s="10">
         <f t="shared" si="6"/>
-        <v>0.99950000000000006</v>
-      </c>
-      <c r="O21" s="10">
-        <f t="shared" si="7"/>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="P21" s="10">
-        <f t="shared" si="8"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="Q21" s="9">
@@ -9732,12 +9499,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R21)</f>
         <v>-I</v>
       </c>
-      <c r="T21" s="12" t="b">
+      <c r="T21" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="9" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="12" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>19</v>
       </c>
@@ -9761,27 +9536,27 @@
       </c>
       <c r="I22" s="26"/>
       <c r="J22" s="10">
-        <f t="shared" si="10"/>
+        <f>IF($V22=TRUE,0,IF($U22=TRUE,0,IF(H22="Ja",IF(ISNUMBER(I22),I22,"-"),IF(ISNUMBER(G22),G22,"-"))))</f>
         <v>2.0000000000000001E-9</v>
       </c>
       <c r="K22" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($V22=TRUE,"NR",IF($U22=TRUE,"ND",IF($T22=TRUE,"D",S22)))</f>
         <v>-I</v>
       </c>
       <c r="M22" s="31">
+        <f t="shared" si="3"/>
+        <v>0.99999999799999995</v>
+      </c>
+      <c r="N22" s="10">
+        <f t="shared" si="4"/>
+        <v>0.99999999799999995</v>
+      </c>
+      <c r="O22" s="10">
         <f t="shared" si="5"/>
-        <v>0.99999999799999995</v>
-      </c>
-      <c r="N22" s="10">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="P22" s="10">
         <f t="shared" si="6"/>
-        <v>0.99999999799999995</v>
-      </c>
-      <c r="O22" s="10">
-        <f t="shared" si="7"/>
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="P22" s="10">
-        <f t="shared" si="8"/>
         <v>2.0000000000000001E-9</v>
       </c>
       <c r="Q22" s="9">
@@ -9796,12 +9571,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R22)</f>
         <v>-I</v>
       </c>
-      <c r="T22" s="12" t="b">
+      <c r="T22" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="9" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="12" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -9819,9 +9602,11 @@
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
-      <c r="T23" s="12"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="12"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -9839,9 +9624,11 @@
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
-      <c r="T24" s="12"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="12"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -9859,9 +9646,11 @@
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
-      <c r="T25" s="12"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="12"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -9879,9 +9668,11 @@
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
-      <c r="T26" s="12"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="12"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -9899,9 +9690,11 @@
       <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
-      <c r="T27" s="12"/>
-    </row>
-    <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="12"/>
+    </row>
+    <row r="28" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -9912,40 +9705,42 @@
       <c r="I28" s="27"/>
       <c r="J28" s="15"/>
       <c r="K28" s="34"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="12"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M28" s="33"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="17"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="M30" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11:G28">
-    <cfRule type="expression" dxfId="26" priority="5">
+    <cfRule type="expression" dxfId="35" priority="5">
       <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I28">
-    <cfRule type="expression" dxfId="25" priority="4">
+    <cfRule type="expression" dxfId="34" priority="4">
       <formula>IF($H11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K28">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10041,10 +9836,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A27DBF-2298-4509-84AE-DCEFED147711}">
-  <dimension ref="B2:U29"/>
+  <dimension ref="B2:V29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="U10" sqref="U10:V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10061,9 +9856,12 @@
     <col min="10" max="10" width="12.85546875" customWidth="1"/>
     <col min="11" max="11" width="29.28515625" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
@@ -10071,7 +9869,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="36" t="s">
         <v>44</v>
       </c>
@@ -10079,7 +9877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
         <v>109</v>
       </c>
@@ -10087,7 +9885,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
         <v>47</v>
       </c>
@@ -10096,7 +9894,7 @@
         <v>2.8437656524269217E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
         <v>41</v>
       </c>
@@ -10105,7 +9903,7 @@
         <v>2.8437656524269217E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="41" t="s">
         <v>48</v>
       </c>
@@ -10114,12 +9912,12 @@
         <v>Nee</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
         <v>0</v>
       </c>
@@ -10170,12 +9968,17 @@
         <v>63</v>
       </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="U10" s="35"/>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="T10" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="U10" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="V10" s="39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -10196,20 +9999,20 @@
         <v>21</v>
       </c>
       <c r="I11" s="25"/>
-      <c r="J11" s="5" t="str">
-        <f t="shared" ref="J11:J22" si="0">IF($E11="Nee",0,IF(H11="Ja",IF(ISNUMBER(I11),I11,"-"),IF(ISNUMBER(G11),G11,"-")))</f>
-        <v>-</v>
+      <c r="J11" s="5">
+        <f>IF($V11=TRUE,0,IF($U11=TRUE,0,IF(H11="Ja",IF(ISNUMBER(I11),I11,"-"),IF(ISNUMBER(G11),G11,"-"))))</f>
+        <v>0</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f t="shared" ref="K11:K22" si="1">IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
+        <f>IF($V11=TRUE,"NR",IF($U11=TRUE,"ND",IF($T11=TRUE,"D",S11)))</f>
         <v>ND</v>
       </c>
       <c r="M11" s="31">
-        <f t="shared" ref="M11:M12" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <f t="shared" ref="M11:M12" si="0">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" ref="N11:N12" si="3">IF(J11="-",1,M11)</f>
+        <f t="shared" ref="N11:N12" si="1">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10">
@@ -10232,12 +10035,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R11)</f>
         <v>+III</v>
       </c>
-      <c r="T11" s="12" t="b">
+      <c r="T11" s="9" t="b">
         <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U11" s="9" t="b">
+        <f>IF($E11="Ja",IF($H11="Nee",NOT(ISNUMBER($G11)),FALSE),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="V11" s="12" t="b">
+        <f>IF(E11="Nee",TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
@@ -10261,19 +10072,19 @@
       </c>
       <c r="I12" s="26"/>
       <c r="J12" s="10">
+        <f t="shared" ref="J12:J22" si="2">IF($V12=TRUE,0,IF($U12=TRUE,0,IF(H12="Ja",IF(ISNUMBER(I12),I12,"-"),IF(ISNUMBER(G12),G12,"-"))))</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="32" t="str">
+        <f t="shared" ref="K12:K22" si="3">IF($V12=TRUE,"NR",IF($U12=TRUE,"ND",IF($T12=TRUE,"D",S12)))</f>
+        <v>+III</v>
+      </c>
+      <c r="M12" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="N12" s="10">
         <f t="shared" si="1"/>
-        <v>+III</v>
-      </c>
-      <c r="M12" s="31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N12" s="10">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O12" s="10">
@@ -10296,12 +10107,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R12)</f>
         <v>+III</v>
       </c>
-      <c r="T12" s="12" t="b">
+      <c r="T12" s="9" t="b">
         <f t="shared" ref="T12:T22" si="6">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U12" s="9" t="b">
+        <f t="shared" ref="U12:U22" si="7">IF($E12="Ja",IF($H12="Nee",NOT(ISNUMBER($G12)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="12" t="b">
+        <f t="shared" ref="V12:V22" si="8">IF(E12="Nee",TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
@@ -10325,19 +10144,19 @@
       </c>
       <c r="I13" s="26"/>
       <c r="J13" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.4E-2</v>
       </c>
       <c r="K13" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-I</v>
       </c>
       <c r="M13" s="31">
-        <f t="shared" ref="M13:M22" si="7">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
+        <f t="shared" ref="M13:M22" si="9">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
         <v>0.97599999999999998</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" ref="N13:N22" si="8">IF(J13="-",1,M13)</f>
+        <f t="shared" ref="N13:N22" si="10">IF(J13="-",1,M13)</f>
         <v>0.97599999999999998</v>
       </c>
       <c r="O13" s="10">
@@ -10360,12 +10179,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R13)</f>
         <v>-I</v>
       </c>
-      <c r="T13" s="12" t="b">
+      <c r="T13" s="9" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U13" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="12" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
@@ -10387,27 +10214,27 @@
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K14" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NR</v>
       </c>
       <c r="M14" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N14" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O14" s="10">
-        <f t="shared" ref="O14:O22" si="9">IF(AND(F14="Geen faalkans",H14="Nee"),0,J14*$C$3)</f>
+        <f t="shared" ref="O14:O22" si="11">IF(AND(F14="Geen faalkans",H14="Nee"),0,J14*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" ref="P14:P22" si="10">IF(J14="-",0,O14)</f>
+        <f t="shared" ref="P14:P22" si="12">IF(J14="-",0,O14)</f>
         <v>0</v>
       </c>
       <c r="Q14" s="9">
@@ -10422,12 +10249,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R14)</f>
         <v>+III</v>
       </c>
-      <c r="T14" s="12" t="b">
+      <c r="T14" s="9" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U14" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="12" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
@@ -10449,27 +10284,27 @@
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K15" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NR</v>
       </c>
       <c r="M15" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O15" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P15" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q15" s="9">
@@ -10484,12 +10319,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R15)</f>
         <v>+III</v>
       </c>
-      <c r="T15" s="12" t="b">
+      <c r="T15" s="9" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U15" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="12" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
@@ -10515,27 +10358,27 @@
         <v>5.9999999999999995E-25</v>
       </c>
       <c r="J16" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.9999999999999995E-25</v>
       </c>
       <c r="K16" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-I</v>
       </c>
       <c r="M16" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O16" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.1999999999999999E-24</v>
       </c>
       <c r="P16" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1999999999999999E-24</v>
       </c>
       <c r="Q16" s="9">
@@ -10550,12 +10393,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
         <v>-I</v>
       </c>
-      <c r="T16" s="12" t="b">
+      <c r="T16" s="9" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U16" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="12" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>14</v>
       </c>
@@ -10581,27 +10432,27 @@
         <v>6.9999999999999999E-6</v>
       </c>
       <c r="J17" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.9999999999999999E-6</v>
       </c>
       <c r="K17" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-I</v>
       </c>
       <c r="M17" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99999300000000002</v>
       </c>
       <c r="N17" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.99999300000000002</v>
       </c>
       <c r="O17" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.4E-5</v>
       </c>
       <c r="P17" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.4E-5</v>
       </c>
       <c r="Q17" s="9">
@@ -10616,12 +10467,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R17)</f>
         <v>-I</v>
       </c>
-      <c r="T17" s="12" t="b">
+      <c r="T17" s="9" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U17" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="12" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>15</v>
       </c>
@@ -10647,27 +10506,27 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="J18" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="K18" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-I</v>
       </c>
       <c r="M18" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99999800000000005</v>
       </c>
       <c r="N18" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.99999800000000005</v>
       </c>
       <c r="O18" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="P18" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="Q18" s="9">
@@ -10682,12 +10541,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
         <v>-I</v>
       </c>
-      <c r="T18" s="12" t="b">
+      <c r="T18" s="9" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U18" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="12" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>16</v>
       </c>
@@ -10713,27 +10580,27 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J19" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K19" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-I</v>
       </c>
       <c r="M19" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99950000000000006</v>
       </c>
       <c r="N19" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.99950000000000006</v>
       </c>
       <c r="O19" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1E-3</v>
       </c>
       <c r="P19" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1E-3</v>
       </c>
       <c r="Q19" s="9">
@@ -10748,12 +10615,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R19)</f>
         <v>-I</v>
       </c>
-      <c r="T19" s="12" t="b">
+      <c r="T19" s="9" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U19" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="12" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
@@ -10777,27 +10652,27 @@
       </c>
       <c r="I20" s="26"/>
       <c r="J20" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.9999999999999998E-15</v>
       </c>
       <c r="K20" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-I</v>
       </c>
       <c r="M20" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.999999999999997</v>
       </c>
       <c r="N20" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.999999999999997</v>
       </c>
       <c r="O20" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.9999999999999997E-15</v>
       </c>
       <c r="P20" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5.9999999999999997E-15</v>
       </c>
       <c r="Q20" s="9">
@@ -10812,12 +10687,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R20)</f>
         <v>-I</v>
       </c>
-      <c r="T20" s="12" t="b">
+      <c r="T20" s="9" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U20" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="12" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
@@ -10841,27 +10724,27 @@
       </c>
       <c r="I21" s="26"/>
       <c r="J21" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="K21" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-I</v>
       </c>
       <c r="M21" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99995999999999996</v>
       </c>
       <c r="N21" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.99995999999999996</v>
       </c>
       <c r="O21" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8.0000000000000007E-5</v>
       </c>
       <c r="P21" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.0000000000000007E-5</v>
       </c>
       <c r="Q21" s="9">
@@ -10876,12 +10759,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R21)</f>
         <v>-I</v>
       </c>
-      <c r="T21" s="12" t="b">
+      <c r="T21" s="9" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U21" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="12" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>19</v>
       </c>
@@ -10905,27 +10796,27 @@
       </c>
       <c r="I22" s="26"/>
       <c r="J22" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K22" s="32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-I</v>
       </c>
       <c r="M22" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.996</v>
       </c>
       <c r="N22" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.996</v>
       </c>
       <c r="O22" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="P22" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="Q22" s="9">
@@ -10940,12 +10831,20 @@
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R22)</f>
         <v>-I</v>
       </c>
-      <c r="T22" s="12" t="b">
+      <c r="T22" s="9" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U22" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="12" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -10963,9 +10862,11 @@
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
-      <c r="T23" s="12"/>
-    </row>
-    <row r="24" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="12"/>
+    </row>
+    <row r="24" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -10983,9 +10884,11 @@
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
-      <c r="T24" s="12"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="12"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -11003,9 +10906,11 @@
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
-      <c r="T25" s="12"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="12"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -11023,9 +10928,11 @@
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
-      <c r="T26" s="12"/>
-    </row>
-    <row r="27" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="12"/>
+    </row>
+    <row r="27" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -11043,33 +10950,35 @@
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
-      <c r="T27" s="17"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="17"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="M29" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11:G15 G17:G27">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="24" priority="5">
       <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I27">
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="23" priority="4">
       <formula>IF($H11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K27">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/benchmarktests/testdefinitions/Benchmarktest_traject 16-5.xlsx
+++ b/benchmarktests/testdefinitions/Benchmarktest_traject 16-5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504942E0-A7B6-431F-93AB-1037C892B012}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D684CAE1-2667-42A1-8E57-11A4814BC60E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="653" firstSheet="1" activeTab="2" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="653" firstSheet="1" activeTab="3" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -741,72 +741,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="91">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="0"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="82">
     <dxf>
       <fill>
         <patternFill>
@@ -3221,8 +3156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49710E67-B736-4749-B620-06835F5DE469}">
   <dimension ref="B2:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3398,19 +3333,19 @@
       <c r="J11" s="5"/>
       <c r="K11" s="25"/>
       <c r="L11" s="29">
-        <f>IF($Z11=TRUE,0,IF($Y11=TRUE,0,IF($X11=TRUE,IF(ISNUMBER($J11),J11,"-"),IF(ISNUMBER(G11),G11,"-"))))</f>
+        <f>IF($Z11=TRUE,0,IF($Y11=TRUE,0,IF($I11="Ja",IF(ISNUMBER(J11),J11,"-"),IF(ISNUMBER(G11),G11,"-"))))</f>
         <v>0</v>
       </c>
       <c r="M11" s="5">
-        <f t="shared" ref="M11:M22" si="0">IF($Z11=TRUE,0,IF($Y11=TRUE,0,IF(I11="Ja",IF(ISNUMBER(K11),K11,"-"),IF(ISNUMBER(H11),H11,"-"))))</f>
+        <f>IF($Z11=TRUE,0,IF($Y11=TRUE,0,IF($I11="Ja",IF(ISNUMBER(K11),K11,"-"),IF(ISNUMBER(H11),H11,"-"))))</f>
         <v>0</v>
       </c>
       <c r="N11" s="6">
-        <f t="shared" ref="N11:N22" si="1">IF(ISNUMBER(L11),IF(M11=0,1,M11/L11),"-")</f>
+        <f t="shared" ref="N11:N22" si="0">IF(ISNUMBER(L11),IF(M11=0,1,M11/L11),"-")</f>
         <v>1</v>
       </c>
       <c r="O11" s="30" t="str">
-        <f>IF($Z11=TRUE,"NR",IF($Y11=TRUE,"ND",IF($X11=TRUE,"D",W11)))</f>
+        <f t="shared" ref="O11:O22" si="1">IF($Z11=TRUE,"NR",IF($Y11=TRUE,"ND",IF($X11=TRUE,"D",W11)))</f>
         <v>ND</v>
       </c>
       <c r="Q11" s="31">
@@ -3483,19 +3418,19 @@
       <c r="J12" s="10"/>
       <c r="K12" s="26"/>
       <c r="L12" s="31">
-        <f>IF($Z12=TRUE,0,IF($Y12=TRUE,0,IF($X12=TRUE,IF(ISNUMBER($J12),J12,"-"),IF(ISNUMBER(G12),G12,"-"))))</f>
+        <f t="shared" ref="L12:L22" si="5">IF($Z12=TRUE,0,IF($Y12=TRUE,0,IF($I12="Ja",IF(ISNUMBER(J12),J12,"-"),IF(ISNUMBER(G12),G12,"-"))))</f>
         <v>0</v>
       </c>
       <c r="M12" s="10">
+        <f t="shared" ref="M12:M22" si="6">IF($Z12=TRUE,0,IF($Y12=TRUE,0,IF($I12="Ja",IF(ISNUMBER(K12),K12,"-"),IF(ISNUMBER(H12),H12,"-"))))</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="11">
+        <v>1</v>
+      </c>
+      <c r="O12" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O12" s="32" t="str">
-        <f>IF($Z12=TRUE,"NR",IF($Y12=TRUE,"ND",IF($X12=TRUE,"D",W12)))</f>
         <v>+III</v>
       </c>
       <c r="Q12" s="31">
@@ -3503,7 +3438,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="10">
-        <f t="shared" ref="R12:R22" si="5">IF(M12="-",1,Q12)</f>
+        <f t="shared" ref="R12:R22" si="7">IF(M12="-",1,Q12)</f>
         <v>1</v>
       </c>
       <c r="S12" s="10">
@@ -3511,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="10">
-        <f t="shared" ref="T12:T22" si="6">IF(L12="-",0,S12)</f>
+        <f t="shared" ref="T12:T22" si="8">IF(L12="-",0,S12)</f>
         <v>0</v>
       </c>
       <c r="U12" s="9">
@@ -3527,15 +3462,15 @@
         <v>+III</v>
       </c>
       <c r="X12" s="9" t="b">
-        <f t="shared" ref="X12:X22" si="7">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
+        <f t="shared" ref="X12:X22" si="9">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y12" s="9" t="b">
-        <f t="shared" ref="Y12:Y22" si="8">IF($E12="Ja",IF($I12="Nee",OR(NOT(ISNUMBER($G12)),NOT(ISNUMBER($H12))),FALSE),FALSE)</f>
+        <f t="shared" ref="Y12:Y22" si="10">IF($E12="Ja",IF($I12="Nee",OR(NOT(ISNUMBER($G12)),NOT(ISNUMBER($H12))),FALSE),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z12" s="12" t="b">
-        <f t="shared" ref="Z12:Z22" si="9">IF($E12="Nee",TRUE,FALSE)</f>
+        <f t="shared" ref="Z12:Z22" si="11">IF($E12="Nee",TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -3571,19 +3506,19 @@
         <v>0</v>
       </c>
       <c r="L13" s="31">
-        <f>IF($Z13=TRUE,0,IF($Y13=TRUE,0,IF($X13=TRUE,IF(ISNUMBER($J13),J13,"-"),IF(ISNUMBER(G13),G13,"-"))))</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="M13" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="11">
+        <v>1</v>
+      </c>
+      <c r="O13" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O13" s="32" t="str">
-        <f>IF($Z13=TRUE,"NR",IF($Y13=TRUE,"ND",IF($X13=TRUE,"D",W13)))</f>
         <v>+III</v>
       </c>
       <c r="Q13" s="31">
@@ -3591,16 +3526,16 @@
         <v>1</v>
       </c>
       <c r="R13" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S13" s="10">
         <f t="shared" si="3"/>
-        <v>28.9</v>
+        <v>0</v>
       </c>
       <c r="T13" s="10">
-        <f t="shared" si="6"/>
-        <v>28.9</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="U13" s="9">
         <f t="array" ref="U13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -3615,15 +3550,15 @@
         <v>+III</v>
       </c>
       <c r="X13" s="9" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y13" s="9" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z13" s="12" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3656,19 +3591,19 @@
       <c r="J14" s="10"/>
       <c r="K14" s="26"/>
       <c r="L14" s="31" t="str">
-        <f>IF($Z14=TRUE,0,IF($Y14=TRUE,0,IF($X14=TRUE,IF(ISNUMBER($J14),J14,"-"),IF(ISNUMBER(G14),G14,"-"))))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="M14" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="N14" s="11" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="N14" s="11" t="str">
+      <c r="O14" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="O14" s="32" t="str">
-        <f>IF($Z14=TRUE,"NR",IF($Y14=TRUE,"ND",IF($X14=TRUE,"D",W14)))</f>
         <v>D</v>
       </c>
       <c r="Q14" s="31" t="e">
@@ -3676,7 +3611,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="R14" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S14" s="10" t="e">
@@ -3684,7 +3619,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="T14" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U14" s="9">
@@ -3700,15 +3635,15 @@
         <v>+III</v>
       </c>
       <c r="X14" s="9" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Y14" s="9" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z14" s="12" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3744,19 +3679,19 @@
         <v>1.8300000000000001E-5</v>
       </c>
       <c r="L15" s="31">
-        <f>IF($Z15=TRUE,0,IF($Y15=TRUE,0,IF($X15=TRUE,IF(ISNUMBER($J15),J15,"-"),IF(ISNUMBER(G15),G15,"-"))))</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="M15" s="10">
+        <f t="shared" si="6"/>
+        <v>1.8300000000000001E-5</v>
+      </c>
+      <c r="N15" s="11">
         <f t="shared" si="0"/>
-        <v>1.8300000000000001E-5</v>
-      </c>
-      <c r="N15" s="11">
+        <v>3.6599999999999997</v>
+      </c>
+      <c r="O15" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>1.8300000000000001E-5</v>
-      </c>
-      <c r="O15" s="32" t="str">
-        <f>IF($Z15=TRUE,"NR",IF($Y15=TRUE,"ND",IF($X15=TRUE,"D",W15)))</f>
         <v>-I</v>
       </c>
       <c r="Q15" s="31">
@@ -3764,16 +3699,16 @@
         <v>0.99998169999999997</v>
       </c>
       <c r="R15" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99998169999999997</v>
       </c>
       <c r="S15" s="10">
         <f t="shared" si="3"/>
-        <v>28.9</v>
+        <v>1.4450000000000002E-4</v>
       </c>
       <c r="T15" s="10">
-        <f t="shared" si="6"/>
-        <v>28.9</v>
+        <f t="shared" si="8"/>
+        <v>1.4450000000000002E-4</v>
       </c>
       <c r="U15" s="9">
         <f t="array" ref="U15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -3788,15 +3723,15 @@
         <v>-I</v>
       </c>
       <c r="X15" s="9" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y15" s="9" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z15" s="12" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3824,19 +3759,19 @@
       <c r="J16" s="10"/>
       <c r="K16" s="26"/>
       <c r="L16" s="31">
-        <f>IF($Z16=TRUE,0,IF($Y16=TRUE,0,IF($X16=TRUE,IF(ISNUMBER($J16),J16,"-"),IF(ISNUMBER(G16),G16,"-"))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M16" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="11">
+        <v>1</v>
+      </c>
+      <c r="O16" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O16" s="32" t="str">
-        <f>IF($Z16=TRUE,"NR",IF($Y16=TRUE,"ND",IF($X16=TRUE,"D",W16)))</f>
         <v>NR</v>
       </c>
       <c r="Q16" s="31">
@@ -3844,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="R16" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S16" s="10">
@@ -3852,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U16" s="9">
@@ -3868,15 +3803,15 @@
         <v>+III</v>
       </c>
       <c r="X16" s="9" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y16" s="9" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z16" s="12" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -3904,19 +3839,19 @@
       <c r="J17" s="10"/>
       <c r="K17" s="26"/>
       <c r="L17" s="31">
-        <f>IF($Z17=TRUE,0,IF($Y17=TRUE,0,IF($X17=TRUE,IF(ISNUMBER($J17),J17,"-"),IF(ISNUMBER(G17),G17,"-"))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M17" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="11">
+        <v>1</v>
+      </c>
+      <c r="O17" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="32" t="str">
-        <f>IF($Z17=TRUE,"NR",IF($Y17=TRUE,"ND",IF($X17=TRUE,"D",W17)))</f>
         <v>NR</v>
       </c>
       <c r="Q17" s="31">
@@ -3924,7 +3859,7 @@
         <v>1</v>
       </c>
       <c r="R17" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S17" s="10">
@@ -3932,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U17" s="9">
@@ -3948,15 +3883,15 @@
         <v>+III</v>
       </c>
       <c r="X17" s="9" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y17" s="9" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z17" s="12" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -3984,19 +3919,19 @@
       <c r="J18" s="10"/>
       <c r="K18" s="26"/>
       <c r="L18" s="31">
-        <f>IF($Z18=TRUE,0,IF($Y18=TRUE,0,IF($X18=TRUE,IF(ISNUMBER($J18),J18,"-"),IF(ISNUMBER(G18),G18,"-"))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M18" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="11">
+        <v>1</v>
+      </c>
+      <c r="O18" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O18" s="32" t="str">
-        <f>IF($Z18=TRUE,"NR",IF($Y18=TRUE,"ND",IF($X18=TRUE,"D",W18)))</f>
         <v>NR</v>
       </c>
       <c r="Q18" s="31">
@@ -4004,7 +3939,7 @@
         <v>1</v>
       </c>
       <c r="R18" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S18" s="10">
@@ -4012,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U18" s="9">
@@ -4028,15 +3963,15 @@
         <v>+III</v>
       </c>
       <c r="X18" s="9" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y18" s="9" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z18" s="12" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -4060,7 +3995,7 @@
         <v>7.27E-4</v>
       </c>
       <c r="H19" s="26">
-        <f t="shared" ref="H19:H22" si="10">G19*3.66</f>
+        <f t="shared" ref="H19:H22" si="12">G19*3.66</f>
         <v>2.6608199999999999E-3</v>
       </c>
       <c r="I19" s="8" t="s">
@@ -4069,19 +4004,19 @@
       <c r="J19" s="10"/>
       <c r="K19" s="26"/>
       <c r="L19" s="31">
-        <f>IF($Z19=TRUE,0,IF($Y19=TRUE,0,IF($X19=TRUE,IF(ISNUMBER($J19),J19,"-"),IF(ISNUMBER(G19),G19,"-"))))</f>
+        <f t="shared" si="5"/>
         <v>7.27E-4</v>
       </c>
       <c r="M19" s="10">
+        <f t="shared" si="6"/>
+        <v>2.6608199999999999E-3</v>
+      </c>
+      <c r="N19" s="11">
         <f t="shared" si="0"/>
-        <v>2.6608199999999999E-3</v>
-      </c>
-      <c r="N19" s="11">
+        <v>3.66</v>
+      </c>
+      <c r="O19" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>3.66</v>
-      </c>
-      <c r="O19" s="32" t="str">
-        <f>IF($Z19=TRUE,"NR",IF($Y19=TRUE,"ND",IF($X19=TRUE,"D",W19)))</f>
         <v>-I</v>
       </c>
       <c r="Q19" s="31">
@@ -4089,7 +4024,7 @@
         <v>0.99733917999999999</v>
       </c>
       <c r="R19" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99733917999999999</v>
       </c>
       <c r="S19" s="10">
@@ -4097,7 +4032,7 @@
         <v>2.1010299999999999E-2</v>
       </c>
       <c r="T19" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.1010299999999999E-2</v>
       </c>
       <c r="U19" s="9">
@@ -4113,15 +4048,15 @@
         <v>-I</v>
       </c>
       <c r="X19" s="9" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y19" s="9" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z19" s="12" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4145,7 +4080,7 @@
         <v>7.2800000000000002E-4</v>
       </c>
       <c r="H20" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.6644800000000003E-3</v>
       </c>
       <c r="I20" s="8" t="s">
@@ -4158,19 +4093,19 @@
         <v>0</v>
       </c>
       <c r="L20" s="31">
-        <f>IF($Z20=TRUE,0,IF($Y20=TRUE,0,IF($X20=TRUE,IF(ISNUMBER($J20),J20,"-"),IF(ISNUMBER(G20),G20,"-"))))</f>
-        <v>7.2800000000000002E-4</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="M20" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="11">
+        <v>1</v>
+      </c>
+      <c r="O20" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="32" t="str">
-        <f>IF($Z20=TRUE,"NR",IF($Y20=TRUE,"ND",IF($X20=TRUE,"D",W20)))</f>
         <v>+III</v>
       </c>
       <c r="Q20" s="31">
@@ -4178,16 +4113,16 @@
         <v>1</v>
       </c>
       <c r="R20" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S20" s="10">
         <f t="shared" si="3"/>
-        <v>2.1039200000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="T20" s="10">
-        <f t="shared" si="6"/>
-        <v>2.1039200000000001E-2</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="U20" s="9">
         <f t="array" ref="U20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -4202,15 +4137,15 @@
         <v>+III</v>
       </c>
       <c r="X20" s="9" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y20" s="9" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z20" s="12" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4234,7 +4169,7 @@
         <v>1E-10</v>
       </c>
       <c r="H21" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.6600000000000003E-10</v>
       </c>
       <c r="I21" s="8" t="s">
@@ -4243,19 +4178,19 @@
       <c r="J21" s="10"/>
       <c r="K21" s="26"/>
       <c r="L21" s="31">
-        <f>IF($Z21=TRUE,0,IF($Y21=TRUE,0,IF($X21=TRUE,IF(ISNUMBER($J21),J21,"-"),IF(ISNUMBER(G21),G21,"-"))))</f>
+        <f t="shared" si="5"/>
         <v>1E-10</v>
       </c>
       <c r="M21" s="10">
+        <f t="shared" si="6"/>
+        <v>3.6600000000000003E-10</v>
+      </c>
+      <c r="N21" s="11">
         <f t="shared" si="0"/>
-        <v>3.6600000000000003E-10</v>
-      </c>
-      <c r="N21" s="11">
+        <v>3.66</v>
+      </c>
+      <c r="O21" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>3.66</v>
-      </c>
-      <c r="O21" s="32" t="str">
-        <f>IF($Z21=TRUE,"NR",IF($Y21=TRUE,"ND",IF($X21=TRUE,"D",W21)))</f>
         <v>-I</v>
       </c>
       <c r="Q21" s="31">
@@ -4263,7 +4198,7 @@
         <v>0.99999999963399999</v>
       </c>
       <c r="R21" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99999999963399999</v>
       </c>
       <c r="S21" s="10">
@@ -4271,7 +4206,7 @@
         <v>2.8900000000000002E-9</v>
       </c>
       <c r="T21" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.8900000000000002E-9</v>
       </c>
       <c r="U21" s="9">
@@ -4287,15 +4222,15 @@
         <v>-I</v>
       </c>
       <c r="X21" s="9" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y21" s="9" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z21" s="12" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4319,7 +4254,7 @@
         <v>1E-4</v>
       </c>
       <c r="H22" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.6600000000000001E-4</v>
       </c>
       <c r="I22" s="8" t="s">
@@ -4328,19 +4263,19 @@
       <c r="J22" s="10"/>
       <c r="K22" s="26"/>
       <c r="L22" s="31">
-        <f>IF($Z22=TRUE,0,IF($Y22=TRUE,0,IF($X22=TRUE,IF(ISNUMBER($J22),J22,"-"),IF(ISNUMBER(G22),G22,"-"))))</f>
+        <f t="shared" si="5"/>
         <v>1E-4</v>
       </c>
       <c r="M22" s="10">
+        <f t="shared" si="6"/>
+        <v>3.6600000000000001E-4</v>
+      </c>
+      <c r="N22" s="11">
         <f t="shared" si="0"/>
-        <v>3.6600000000000001E-4</v>
-      </c>
-      <c r="N22" s="11">
+        <v>3.6599999999999997</v>
+      </c>
+      <c r="O22" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>3.6599999999999997</v>
-      </c>
-      <c r="O22" s="32" t="str">
-        <f>IF($Z22=TRUE,"NR",IF($Y22=TRUE,"ND",IF($X22=TRUE,"D",W22)))</f>
         <v>-I</v>
       </c>
       <c r="Q22" s="31">
@@ -4348,7 +4283,7 @@
         <v>0.99963400000000002</v>
       </c>
       <c r="R22" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99963400000000002</v>
       </c>
       <c r="S22" s="10">
@@ -4356,7 +4291,7 @@
         <v>2.8900000000000002E-3</v>
       </c>
       <c r="T22" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.8900000000000002E-3</v>
       </c>
       <c r="U22" s="9">
@@ -4372,15 +4307,15 @@
         <v>-I</v>
       </c>
       <c r="X22" s="9" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y22" s="9" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z22" s="12" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4600,23 +4535,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11:H30">
-    <cfRule type="expression" dxfId="90" priority="11">
+    <cfRule type="expression" dxfId="81" priority="11">
       <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:K30">
-    <cfRule type="expression" dxfId="89" priority="10">
+    <cfRule type="expression" dxfId="80" priority="10">
       <formula>IF($I11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:O30">
-    <cfRule type="cellIs" dxfId="88" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4714,8 +4649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFA30DD-EAF1-4973-B290-E12CB5036732}">
   <dimension ref="B2:Z32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:O11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4895,15 +4830,15 @@
       <c r="J11" s="5"/>
       <c r="K11" s="25"/>
       <c r="L11" s="29">
-        <f>IF($Z11=TRUE,0,IF($Y11=TRUE,0,IF($X11=TRUE,IF(ISNUMBER($J11),J11,"-"),IF(ISNUMBER(G11),G11,"-"))))</f>
+        <f>IF($Z11=TRUE,0,IF($Y11=TRUE,0,IF($I11="Ja",IF(ISNUMBER(J11),J11,"-"),IF(ISNUMBER(G11),G11,"-"))))</f>
         <v>0</v>
       </c>
       <c r="M11" s="5">
-        <f t="shared" ref="M11:M21" si="0">IF($Z11=TRUE,0,IF($Y11=TRUE,0,IF(I11="Ja",IF(ISNUMBER(K11),K11,"-"),IF(ISNUMBER(H11),H11,"-"))))</f>
+        <f>IF($Z11=TRUE,0,IF($Y11=TRUE,0,IF($I11="Ja",IF(ISNUMBER(K11),K11,"-"),IF(ISNUMBER(H11),H11,"-"))))</f>
         <v>0</v>
       </c>
       <c r="N11" s="6">
-        <f t="shared" ref="N11:N22" si="1">IF(ISNUMBER(L11),IF(M11=0,1,M11/L11),"-")</f>
+        <f t="shared" ref="N11:N22" si="0">IF(ISNUMBER(L11),IF(M11=0,1,M11/L11),"-")</f>
         <v>1</v>
       </c>
       <c r="O11" s="30" t="str">
@@ -4911,7 +4846,7 @@
         <v>+III</v>
       </c>
       <c r="Q11" s="31">
-        <f t="shared" ref="Q11:Q22" si="2">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
+        <f t="shared" ref="Q11:Q22" si="1">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
         <v>1</v>
       </c>
       <c r="R11" s="10">
@@ -4919,7 +4854,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="10">
-        <f t="shared" ref="S11:S22" si="3">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
+        <f t="shared" ref="S11:S22" si="2">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="T11" s="10">
@@ -4979,35 +4914,35 @@
       <c r="J12" s="10"/>
       <c r="K12" s="26"/>
       <c r="L12" s="31">
-        <f t="shared" ref="L12:L22" si="4">IF($Z12=TRUE,0,IF($Y12=TRUE,0,IF($X12=TRUE,IF(ISNUMBER($J12),J12,"-"),IF(ISNUMBER(G12),G12,"-"))))</f>
+        <f>IF($Z12=TRUE,0,IF($Y12=TRUE,0,IF($I12="Ja",IF(ISNUMBER(J12),J12,"-"),IF(ISNUMBER(G12),G12,"-"))))</f>
         <v>2.3699999999999999E-4</v>
       </c>
       <c r="M12" s="10">
+        <f>IF($Z12=TRUE,0,IF($Y12=TRUE,0,IF($I12="Ja",IF(ISNUMBER(K12),K12,"-"),IF(ISNUMBER(H12),H12,"-"))))</f>
+        <v>5.4984000000000001E-4</v>
+      </c>
+      <c r="N12" s="11">
         <f t="shared" si="0"/>
-        <v>5.4984000000000001E-4</v>
-      </c>
-      <c r="N12" s="11">
+        <v>2.3200000000000003</v>
+      </c>
+      <c r="O12" s="32" t="str">
+        <f t="shared" ref="O12:O22" si="3">IF($Z12=TRUE,"NR",IF($Y12=TRUE,"ND",IF($X12=TRUE,"D",W12)))</f>
+        <v>-I</v>
+      </c>
+      <c r="Q12" s="31">
         <f t="shared" si="1"/>
-        <v>2.3200000000000003</v>
-      </c>
-      <c r="O12" s="32" t="str">
-        <f t="shared" ref="O12:O22" si="5">IF($Z12=TRUE,"NR",IF($Y12=TRUE,"ND",IF($X12=TRUE,"D",W12)))</f>
-        <v>-I</v>
-      </c>
-      <c r="Q12" s="31">
+        <v>0.99945015999999998</v>
+      </c>
+      <c r="R12" s="10">
+        <f t="shared" ref="R12:R22" si="4">IF(M12="-",1,Q12)</f>
+        <v>0.99945015999999998</v>
+      </c>
+      <c r="S12" s="10">
         <f t="shared" si="2"/>
-        <v>0.99945015999999998</v>
-      </c>
-      <c r="R12" s="10">
-        <f t="shared" ref="R12:R22" si="6">IF(M12="-",1,Q12)</f>
-        <v>0.99945015999999998</v>
-      </c>
-      <c r="S12" s="10">
-        <f t="shared" si="3"/>
         <v>3.5076E-3</v>
       </c>
       <c r="T12" s="10">
-        <f t="shared" ref="T12:T22" si="7">IF(L12="-",0,S12)</f>
+        <f t="shared" ref="T12:T22" si="5">IF(L12="-",0,S12)</f>
         <v>3.5076E-3</v>
       </c>
       <c r="U12" s="9">
@@ -5023,15 +4958,15 @@
         <v>-I</v>
       </c>
       <c r="X12" s="9" t="b">
-        <f t="shared" ref="X12:X22" si="8">IF($E12="Ja",IF($I12="Ja",OR(NOT(ISNUMBER($J12)),NOT(ISNUMBER($K12))),FALSE),FALSE)</f>
+        <f t="shared" ref="X12:X22" si="6">IF($E12="Ja",IF($I12="Ja",OR(NOT(ISNUMBER($J12)),NOT(ISNUMBER($K12))),FALSE),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y12" s="9" t="b">
-        <f t="shared" ref="Y12:Y22" si="9">IF($E12="Ja",IF($I12="Nee",OR(NOT(ISNUMBER($G12)),NOT(ISNUMBER($H12))),FALSE),FALSE)</f>
+        <f t="shared" ref="Y12:Y22" si="7">IF($E12="Ja",IF($I12="Nee",OR(NOT(ISNUMBER($G12)),NOT(ISNUMBER($H12))),FALSE),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z12" s="12" t="b">
-        <f t="shared" ref="Z12:Z22" si="10">IF($E12="Nee",TRUE,FALSE)</f>
+        <f t="shared" ref="Z12:Z22" si="8">IF($E12="Nee",TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -5063,35 +4998,35 @@
       <c r="J13" s="10"/>
       <c r="K13" s="26"/>
       <c r="L13" s="31">
+        <f>IF($Z13=TRUE,0,IF($Y13=TRUE,0,IF($I13="Ja",IF(ISNUMBER(J13),J13,"-"),IF(ISNUMBER(G13),G13,"-"))))</f>
+        <v>1E-50</v>
+      </c>
+      <c r="M13" s="10">
+        <f>IF($Z13=TRUE,0,IF($Y13=TRUE,0,IF($I13="Ja",IF(ISNUMBER(K13),K13,"-"),IF(ISNUMBER(H13),H13,"-"))))</f>
+        <v>2.3200000000000003E-50</v>
+      </c>
+      <c r="N13" s="11">
+        <f t="shared" si="0"/>
+        <v>2.3200000000000003</v>
+      </c>
+      <c r="O13" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>-I</v>
+      </c>
+      <c r="Q13" s="31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R13" s="10">
         <f t="shared" si="4"/>
-        <v>1E-50</v>
-      </c>
-      <c r="M13" s="10">
-        <f t="shared" si="0"/>
-        <v>2.3200000000000003E-50</v>
-      </c>
-      <c r="N13" s="11">
-        <f t="shared" si="1"/>
-        <v>2.3200000000000003</v>
-      </c>
-      <c r="O13" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="S13" s="10">
+        <f t="shared" si="2"/>
+        <v>1.48E-49</v>
+      </c>
+      <c r="T13" s="10">
         <f t="shared" si="5"/>
-        <v>-I</v>
-      </c>
-      <c r="Q13" s="31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R13" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S13" s="10">
-        <f t="shared" si="3"/>
-        <v>1.48E-49</v>
-      </c>
-      <c r="T13" s="10">
-        <f t="shared" si="7"/>
         <v>1.48E-49</v>
       </c>
       <c r="U13" s="9">
@@ -5107,15 +5042,15 @@
         <v>-I</v>
       </c>
       <c r="X13" s="9" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="12" t="b">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="9" t="b">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="12" t="b">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -5143,35 +5078,35 @@
       <c r="J14" s="10"/>
       <c r="K14" s="26"/>
       <c r="L14" s="31">
+        <f>IF($Z14=TRUE,0,IF($Y14=TRUE,0,IF($I14="Ja",IF(ISNUMBER(J14),J14,"-"),IF(ISNUMBER(G14),G14,"-"))))</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
+        <f>IF($Z14=TRUE,0,IF($Y14=TRUE,0,IF($I14="Ja",IF(ISNUMBER(K14),K14,"-"),IF(ISNUMBER(H14),H14,"-"))))</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O14" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>NR</v>
+      </c>
+      <c r="Q14" s="31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R14" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O14" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="S14" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="10">
         <f t="shared" si="5"/>
-        <v>NR</v>
-      </c>
-      <c r="Q14" s="31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R14" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S14" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="10">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U14" s="9">
@@ -5187,15 +5122,15 @@
         <v>+III</v>
       </c>
       <c r="X14" s="9" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="12" t="b">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="9" t="b">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="12" t="b">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -5227,35 +5162,35 @@
       <c r="J15" s="10"/>
       <c r="K15" s="26"/>
       <c r="L15" s="31">
+        <f>IF($Z15=TRUE,0,IF($Y15=TRUE,0,IF($I15="Ja",IF(ISNUMBER(J15),J15,"-"),IF(ISNUMBER(G15),G15,"-"))))</f>
+        <v>2.3751999999999999E-4</v>
+      </c>
+      <c r="M15" s="10">
+        <f>IF($Z15=TRUE,0,IF($Y15=TRUE,0,IF($I15="Ja",IF(ISNUMBER(K15),K15,"-"),IF(ISNUMBER(H15),H15,"-"))))</f>
+        <v>5.5104640000000005E-4</v>
+      </c>
+      <c r="N15" s="11">
+        <f t="shared" si="0"/>
+        <v>2.3200000000000003</v>
+      </c>
+      <c r="O15" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>-I</v>
+      </c>
+      <c r="Q15" s="31">
+        <f t="shared" si="1"/>
+        <v>0.99944895359999997</v>
+      </c>
+      <c r="R15" s="10">
         <f t="shared" si="4"/>
-        <v>2.3751999999999999E-4</v>
-      </c>
-      <c r="M15" s="10">
-        <f t="shared" si="0"/>
-        <v>5.5104640000000005E-4</v>
-      </c>
-      <c r="N15" s="11">
-        <f t="shared" si="1"/>
-        <v>2.3200000000000003</v>
-      </c>
-      <c r="O15" s="32" t="str">
+        <v>0.99944895359999997</v>
+      </c>
+      <c r="S15" s="10">
+        <f t="shared" si="2"/>
+        <v>3.5152960000000002E-3</v>
+      </c>
+      <c r="T15" s="10">
         <f t="shared" si="5"/>
-        <v>-I</v>
-      </c>
-      <c r="Q15" s="31">
-        <f t="shared" si="2"/>
-        <v>0.99944895359999997</v>
-      </c>
-      <c r="R15" s="10">
-        <f t="shared" si="6"/>
-        <v>0.99944895359999997</v>
-      </c>
-      <c r="S15" s="10">
-        <f t="shared" si="3"/>
-        <v>3.5152960000000002E-3</v>
-      </c>
-      <c r="T15" s="10">
-        <f t="shared" si="7"/>
         <v>3.5152960000000002E-3</v>
       </c>
       <c r="U15" s="9">
@@ -5271,15 +5206,15 @@
         <v>-I</v>
       </c>
       <c r="X15" s="9" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="12" t="b">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="9" t="b">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="12" t="b">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -5307,35 +5242,35 @@
       <c r="J16" s="10"/>
       <c r="K16" s="26"/>
       <c r="L16" s="31">
+        <f>IF($Z16=TRUE,0,IF($Y16=TRUE,0,IF($I16="Ja",IF(ISNUMBER(J16),J16,"-"),IF(ISNUMBER(G16),G16,"-"))))</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="10">
+        <f>IF($Z16=TRUE,0,IF($Y16=TRUE,0,IF($I16="Ja",IF(ISNUMBER(K16),K16,"-"),IF(ISNUMBER(H16),H16,"-"))))</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O16" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>NR</v>
+      </c>
+      <c r="Q16" s="31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R16" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O16" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="S16" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="10">
         <f t="shared" si="5"/>
-        <v>NR</v>
-      </c>
-      <c r="Q16" s="31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R16" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S16" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="10">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U16" s="9">
@@ -5351,15 +5286,15 @@
         <v>+III</v>
       </c>
       <c r="X16" s="9" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="12" t="b">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="9" t="b">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="12" t="b">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -5396,36 +5331,36 @@
         <v>2.3200000000000005E-5</v>
       </c>
       <c r="L17" s="31">
+        <f>IF($Z17=TRUE,0,IF($Y17=TRUE,0,IF($I17="Ja",IF(ISNUMBER(J17),J17,"-"),IF(ISNUMBER(G17),G17,"-"))))</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M17" s="10">
+        <f>IF($Z17=TRUE,0,IF($Y17=TRUE,0,IF($I17="Ja",IF(ISNUMBER(K17),K17,"-"),IF(ISNUMBER(H17),H17,"-"))))</f>
+        <v>2.3200000000000005E-5</v>
+      </c>
+      <c r="N17" s="11">
+        <f t="shared" si="0"/>
+        <v>2.3200000000000003</v>
+      </c>
+      <c r="O17" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>-I</v>
+      </c>
+      <c r="Q17" s="31">
+        <f t="shared" si="1"/>
+        <v>0.9999768</v>
+      </c>
+      <c r="R17" s="10">
         <f t="shared" si="4"/>
-        <v>0.1</v>
-      </c>
-      <c r="M17" s="10">
-        <f t="shared" si="0"/>
-        <v>2.3200000000000005E-5</v>
-      </c>
-      <c r="N17" s="11">
-        <f t="shared" si="1"/>
-        <v>2.3200000000000003E-4</v>
-      </c>
-      <c r="O17" s="32" t="str">
+        <v>0.9999768</v>
+      </c>
+      <c r="S17" s="10">
+        <f t="shared" si="2"/>
+        <v>1.4800000000000002E-4</v>
+      </c>
+      <c r="T17" s="10">
         <f t="shared" si="5"/>
-        <v>-I</v>
-      </c>
-      <c r="Q17" s="31">
-        <f t="shared" si="2"/>
-        <v>0.9999768</v>
-      </c>
-      <c r="R17" s="10">
-        <f t="shared" si="6"/>
-        <v>0.9999768</v>
-      </c>
-      <c r="S17" s="10">
-        <f t="shared" si="3"/>
-        <v>1.4800000000000002</v>
-      </c>
-      <c r="T17" s="10">
-        <f t="shared" si="7"/>
-        <v>1.4800000000000002</v>
+        <v>1.4800000000000002E-4</v>
       </c>
       <c r="U17" s="9">
         <f t="array" ref="U17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -5440,15 +5375,15 @@
         <v>-I</v>
       </c>
       <c r="X17" s="9" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="12" t="b">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="9" t="b">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="12" t="b">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -5472,7 +5407,7 @@
         <v>2.3800000000000001E-4</v>
       </c>
       <c r="H18" s="26">
-        <f t="shared" ref="H18:H22" si="11">G18*2.32</f>
+        <f t="shared" ref="H18:H22" si="9">G18*2.32</f>
         <v>5.5216E-4</v>
       </c>
       <c r="I18" s="8" t="s">
@@ -5485,36 +5420,36 @@
         <v>2.3200000000000003E-10</v>
       </c>
       <c r="L18" s="31">
+        <f>IF($Z18=TRUE,0,IF($Y18=TRUE,0,IF($I18="Ja",IF(ISNUMBER(J18),J18,"-"),IF(ISNUMBER(G18),G18,"-"))))</f>
+        <v>1E-10</v>
+      </c>
+      <c r="M18" s="10">
+        <f>IF($Z18=TRUE,0,IF($Y18=TRUE,0,IF($I18="Ja",IF(ISNUMBER(K18),K18,"-"),IF(ISNUMBER(H18),H18,"-"))))</f>
+        <v>2.3200000000000003E-10</v>
+      </c>
+      <c r="N18" s="11">
+        <f t="shared" si="0"/>
+        <v>2.3200000000000003</v>
+      </c>
+      <c r="O18" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>-I</v>
+      </c>
+      <c r="Q18" s="31">
+        <f t="shared" si="1"/>
+        <v>0.99999999976800003</v>
+      </c>
+      <c r="R18" s="10">
         <f t="shared" si="4"/>
-        <v>2.3800000000000001E-4</v>
-      </c>
-      <c r="M18" s="10">
-        <f t="shared" si="0"/>
-        <v>2.3200000000000003E-10</v>
-      </c>
-      <c r="N18" s="11">
-        <f t="shared" si="1"/>
-        <v>9.7478991596638658E-7</v>
-      </c>
-      <c r="O18" s="32" t="str">
+        <v>0.99999999976800003</v>
+      </c>
+      <c r="S18" s="10">
+        <f t="shared" si="2"/>
+        <v>1.4800000000000001E-9</v>
+      </c>
+      <c r="T18" s="10">
         <f t="shared" si="5"/>
-        <v>-I</v>
-      </c>
-      <c r="Q18" s="31">
-        <f t="shared" si="2"/>
-        <v>0.99999999976800003</v>
-      </c>
-      <c r="R18" s="10">
-        <f t="shared" si="6"/>
-        <v>0.99999999976800003</v>
-      </c>
-      <c r="S18" s="10">
-        <f t="shared" si="3"/>
-        <v>3.5224000000000002E-3</v>
-      </c>
-      <c r="T18" s="10">
-        <f t="shared" si="7"/>
-        <v>3.5224000000000002E-3</v>
+        <v>1.4800000000000001E-9</v>
       </c>
       <c r="U18" s="9">
         <f t="array" ref="U18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -5529,15 +5464,15 @@
         <v>-I</v>
       </c>
       <c r="X18" s="9" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="12" t="b">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="9" t="b">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="12" t="b">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -5569,35 +5504,35 @@
       <c r="J19" s="10"/>
       <c r="K19" s="26"/>
       <c r="L19" s="31" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($Z19=TRUE,0,IF($Y19=TRUE,0,IF($I19="Ja",IF(ISNUMBER(J19),J19,"-"),IF(ISNUMBER(G19),G19,"-"))))</f>
         <v>-</v>
       </c>
       <c r="M19" s="10" t="str">
+        <f>IF($Z19=TRUE,0,IF($Y19=TRUE,0,IF($I19="Ja",IF(ISNUMBER(K19),K19,"-"),IF(ISNUMBER(H19),H19,"-"))))</f>
+        <v>-</v>
+      </c>
+      <c r="N19" s="11" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="N19" s="11" t="str">
+      <c r="O19" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>D</v>
+      </c>
+      <c r="Q19" s="31" t="e">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="O19" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v>D</v>
-      </c>
-      <c r="Q19" s="31" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R19" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S19" s="10" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R19" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S19" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="T19" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U19" s="9">
@@ -5613,15 +5548,15 @@
         <v>+III</v>
       </c>
       <c r="X19" s="9" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Y19" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="12" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Y19" s="9" t="b">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z19" s="12" t="b">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -5657,36 +5592,36 @@
         <v>0</v>
       </c>
       <c r="L20" s="31">
+        <f>IF($Z20=TRUE,0,IF($Y20=TRUE,0,IF($I20="Ja",IF(ISNUMBER(J20),J20,"-"),IF(ISNUMBER(G20),G20,"-"))))</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="10">
+        <f>IF($Z20=TRUE,0,IF($Y20=TRUE,0,IF($I20="Ja",IF(ISNUMBER(K20),K20,"-"),IF(ISNUMBER(H20),H20,"-"))))</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>+III</v>
+      </c>
+      <c r="Q20" s="31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R20" s="10">
         <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="M20" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="S20" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="10">
         <f t="shared" si="5"/>
-        <v>+III</v>
-      </c>
-      <c r="Q20" s="31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R20" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S20" s="10">
-        <f t="shared" si="3"/>
-        <v>7.4</v>
-      </c>
-      <c r="T20" s="10">
-        <f t="shared" si="7"/>
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="U20" s="9">
         <f t="array" ref="U20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -5705,11 +5640,11 @@
         <v>0</v>
       </c>
       <c r="Y20" s="9" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z20" s="12" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5733,7 +5668,7 @@
         <v>0.1</v>
       </c>
       <c r="H21" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0.23199999999999998</v>
       </c>
       <c r="I21" s="8" t="s">
@@ -5746,36 +5681,36 @@
         <v>2.3200000000000003E-8</v>
       </c>
       <c r="L21" s="31">
+        <f>IF($Z21=TRUE,0,IF($Y21=TRUE,0,IF($I21="Ja",IF(ISNUMBER(J21),J21,"-"),IF(ISNUMBER(G21),G21,"-"))))</f>
+        <v>1E-8</v>
+      </c>
+      <c r="M21" s="10">
+        <f>IF($Z21=TRUE,0,IF($Y21=TRUE,0,IF($I21="Ja",IF(ISNUMBER(K21),K21,"-"),IF(ISNUMBER(H21),H21,"-"))))</f>
+        <v>2.3200000000000003E-8</v>
+      </c>
+      <c r="N21" s="11">
+        <f t="shared" si="0"/>
+        <v>2.3200000000000003</v>
+      </c>
+      <c r="O21" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>-I</v>
+      </c>
+      <c r="Q21" s="31">
+        <f t="shared" si="1"/>
+        <v>0.99999997679999997</v>
+      </c>
+      <c r="R21" s="10">
         <f t="shared" si="4"/>
-        <v>0.1</v>
-      </c>
-      <c r="M21" s="10">
-        <f t="shared" si="0"/>
-        <v>2.3200000000000003E-8</v>
-      </c>
-      <c r="N21" s="11">
-        <f t="shared" si="1"/>
-        <v>2.3200000000000001E-7</v>
-      </c>
-      <c r="O21" s="32" t="str">
+        <v>0.99999997679999997</v>
+      </c>
+      <c r="S21" s="10">
+        <f t="shared" si="2"/>
+        <v>1.48E-7</v>
+      </c>
+      <c r="T21" s="10">
         <f t="shared" si="5"/>
-        <v>-I</v>
-      </c>
-      <c r="Q21" s="31">
-        <f t="shared" si="2"/>
-        <v>0.99999997679999997</v>
-      </c>
-      <c r="R21" s="10">
-        <f t="shared" si="6"/>
-        <v>0.99999997679999997</v>
-      </c>
-      <c r="S21" s="10">
-        <f t="shared" si="3"/>
-        <v>1.4800000000000002</v>
-      </c>
-      <c r="T21" s="10">
-        <f t="shared" si="7"/>
-        <v>1.4800000000000002</v>
+        <v>1.48E-7</v>
       </c>
       <c r="U21" s="9">
         <f t="array" ref="U21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -5790,15 +5725,15 @@
         <v>-I</v>
       </c>
       <c r="X21" s="9" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="12" t="b">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="9" t="b">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="12" t="b">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -5822,7 +5757,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="H22" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0.22968</v>
       </c>
       <c r="I22" s="8" t="s">
@@ -5835,36 +5770,36 @@
         <v>2.3200000000000003E-8</v>
       </c>
       <c r="L22" s="31">
+        <f>IF($Z22=TRUE,0,IF($Y22=TRUE,0,IF($I22="Ja",IF(ISNUMBER(J22),J22,"-"),IF(ISNUMBER(G22),G22,"-"))))</f>
+        <v>1E-8</v>
+      </c>
+      <c r="M22" s="10">
+        <f>IF($Z22=TRUE,0,IF($Y22=TRUE,0,IF($I22="Ja",IF(ISNUMBER(K22),K22,"-"),IF(ISNUMBER(H22),H22,"-"))))</f>
+        <v>2.3200000000000003E-8</v>
+      </c>
+      <c r="N22" s="11">
+        <f t="shared" si="0"/>
+        <v>2.3200000000000003</v>
+      </c>
+      <c r="O22" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>-I</v>
+      </c>
+      <c r="Q22" s="31">
+        <f t="shared" si="1"/>
+        <v>0.99999997679999997</v>
+      </c>
+      <c r="R22" s="10">
         <f t="shared" si="4"/>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="M22" s="10">
-        <f>IF($Z22=TRUE,0,IF($Y22=TRUE,0,IF(I22="Ja",IF(ISNUMBER(K22),K22,"-"),IF(ISNUMBER(H22),H22,"-"))))</f>
-        <v>2.3200000000000003E-8</v>
-      </c>
-      <c r="N22" s="11">
-        <f t="shared" si="1"/>
-        <v>2.3434343434343436E-7</v>
-      </c>
-      <c r="O22" s="32" t="str">
+        <v>0.99999997679999997</v>
+      </c>
+      <c r="S22" s="10">
+        <f t="shared" si="2"/>
+        <v>1.48E-7</v>
+      </c>
+      <c r="T22" s="10">
         <f t="shared" si="5"/>
-        <v>-I</v>
-      </c>
-      <c r="Q22" s="31">
-        <f t="shared" si="2"/>
-        <v>0.99999997679999997</v>
-      </c>
-      <c r="R22" s="10">
-        <f t="shared" si="6"/>
-        <v>0.99999997679999997</v>
-      </c>
-      <c r="S22" s="10">
-        <f t="shared" si="3"/>
-        <v>1.4652000000000001</v>
-      </c>
-      <c r="T22" s="10">
-        <f t="shared" si="7"/>
-        <v>1.4652000000000001</v>
+        <v>1.48E-7</v>
       </c>
       <c r="U22" s="9">
         <f t="array" ref="U22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -5879,15 +5814,15 @@
         <v>-I</v>
       </c>
       <c r="X22" s="9" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="12" t="b">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="9" t="b">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="12" t="b">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -6107,23 +6042,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11:H30">
-    <cfRule type="expression" dxfId="79" priority="11">
+    <cfRule type="expression" dxfId="70" priority="11">
       <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:K30">
-    <cfRule type="expression" dxfId="78" priority="10">
+    <cfRule type="expression" dxfId="69" priority="10">
       <formula>IF($I11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:O30">
-    <cfRule type="cellIs" dxfId="77" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6672,23 +6607,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11:G16">
-    <cfRule type="expression" dxfId="68" priority="11">
+    <cfRule type="expression" dxfId="59" priority="11">
       <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I16">
-    <cfRule type="expression" dxfId="67" priority="10">
+    <cfRule type="expression" dxfId="58" priority="10">
       <formula>IF($H11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K16">
-    <cfRule type="cellIs" dxfId="66" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7200,23 +7135,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="57" priority="11">
+    <cfRule type="expression" dxfId="48" priority="11">
       <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="56" priority="10">
+    <cfRule type="expression" dxfId="47" priority="10">
       <formula>IF($H11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7321,7 +7256,7 @@
   <dimension ref="B2:V30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11:K11"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7479,23 +7414,23 @@
       </c>
       <c r="I11" s="25"/>
       <c r="J11" s="5">
-        <f>IF($V11=TRUE,0,IF($U11=TRUE,0,IF(H11="Ja",IF(ISNUMBER(I11),I11,"-"),IF(ISNUMBER(G11),G11,"-"))))</f>
+        <f t="shared" ref="J11:J22" si="0">IF($V11=TRUE,0,IF($U11=TRUE,0,IF(H11="Ja",IF(ISNUMBER(I11),I11,"-"),IF(ISNUMBER(G11),G11,"-"))))</f>
         <v>0</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f>IF($V11=TRUE,"NR",IF($U11=TRUE,"ND",IF($T11=TRUE,"D",S11)))</f>
+        <f t="shared" ref="K11:K22" si="1">IF($V11=TRUE,"NR",IF($U11=TRUE,"ND",IF($T11=TRUE,"D",S11)))</f>
         <v>ND</v>
       </c>
       <c r="M11" s="31">
-        <f t="shared" ref="M11:M12" si="0">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <f t="shared" ref="M11:M12" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" ref="N11:N12" si="1">IF(J11="-",1,M11)</f>
+        <f t="shared" ref="N11:N12" si="3">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" ref="O11:O12" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <f t="shared" ref="O11:O12" si="4">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P11" s="10">
@@ -7553,27 +7488,27 @@
         <v>0</v>
       </c>
       <c r="J12" s="10">
-        <f>IF($V12=TRUE,0,IF($U12=TRUE,0,IF(H12="Ja",IF(ISNUMBER(I12),I12,"-"),IF(ISNUMBER(G12),G12,"-"))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K12" s="32" t="str">
-        <f>IF($V12=TRUE,"NR",IF($U12=TRUE,"ND",IF($T12=TRUE,"D",S12)))</f>
+        <f t="shared" si="1"/>
         <v>+III</v>
       </c>
       <c r="M12" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O12" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" ref="P12:P13" si="3">IF(J12="-",0,O12)</f>
+        <f t="shared" ref="P12:P13" si="5">IF(J12="-",0,O12)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="9">
@@ -7589,15 +7524,15 @@
         <v>+III</v>
       </c>
       <c r="T12" s="9" t="b">
-        <f t="shared" ref="T12:T22" si="4">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
+        <f t="shared" ref="T12:T22" si="6">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
       <c r="U12" s="9" t="b">
-        <f t="shared" ref="U12:U22" si="5">IF($E12="Ja",IF($H12="Nee",NOT(ISNUMBER($G12)),FALSE),FALSE)</f>
+        <f t="shared" ref="U12:U22" si="7">IF($E12="Ja",IF($H12="Nee",NOT(ISNUMBER($G12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
       <c r="V12" s="12" t="b">
-        <f t="shared" ref="V12:V22" si="6">IF(E12="Nee",TRUE,FALSE)</f>
+        <f t="shared" ref="V12:V22" si="8">IF(E12="Nee",TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -7627,27 +7562,27 @@
         <v>5.9999999999999997E-7</v>
       </c>
       <c r="J13" s="10">
-        <f>IF($V13=TRUE,0,IF($U13=TRUE,0,IF(H13="Ja",IF(ISNUMBER(I13),I13,"-"),IF(ISNUMBER(G13),G13,"-"))))</f>
+        <f t="shared" si="0"/>
         <v>5.9999999999999997E-7</v>
       </c>
       <c r="K13" s="32" t="str">
-        <f>IF($V13=TRUE,"NR",IF($U13=TRUE,"ND",IF($T13=TRUE,"D",S13)))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M13" s="31">
-        <f t="shared" ref="M13:M22" si="7">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
+        <f t="shared" ref="M13:M22" si="9">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
         <v>0.99999939999999998</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" ref="N13:N22" si="8">IF(J13="-",1,M13)</f>
+        <f t="shared" ref="N13:N22" si="10">IF(J13="-",1,M13)</f>
         <v>0.99999939999999998</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" ref="O13:O22" si="9">IF(AND(F13="Geen faalkans",H13="Nee"),0,J13*$C$3)</f>
+        <f t="shared" ref="O13:O22" si="11">IF(AND(F13="Geen faalkans",H13="Nee"),0,J13*$C$3)</f>
         <v>1.7999999999999999E-6</v>
       </c>
       <c r="P13" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.7999999999999999E-6</v>
       </c>
       <c r="Q13" s="9">
@@ -7663,15 +7598,15 @@
         <v>-I</v>
       </c>
       <c r="T13" s="9" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U13" s="9" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V13" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7699,27 +7634,27 @@
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="10">
-        <f>IF($V14=TRUE,0,IF($U14=TRUE,0,IF(H14="Ja",IF(ISNUMBER(I14),I14,"-"),IF(ISNUMBER(G14),G14,"-"))))</f>
+        <f t="shared" si="0"/>
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="K14" s="32" t="str">
-        <f>IF($V14=TRUE,"NR",IF($U14=TRUE,"ND",IF($T14=TRUE,"D",S14)))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M14" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99999499999999997</v>
       </c>
       <c r="N14" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.99999499999999997</v>
       </c>
       <c r="O14" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.5000000000000002E-5</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" ref="P14:P22" si="10">IF(J14="-",0,O14)</f>
+        <f t="shared" ref="P14:P22" si="12">IF(J14="-",0,O14)</f>
         <v>1.5000000000000002E-5</v>
       </c>
       <c r="Q14" s="9">
@@ -7735,15 +7670,15 @@
         <v>-I</v>
       </c>
       <c r="T14" s="9" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U14" s="9" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V14" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7773,27 +7708,27 @@
         <v>8.0000000000000005E-9</v>
       </c>
       <c r="J15" s="10">
-        <f>IF($V15=TRUE,0,IF($U15=TRUE,0,IF(H15="Ja",IF(ISNUMBER(I15),I15,"-"),IF(ISNUMBER(G15),G15,"-"))))</f>
+        <f t="shared" si="0"/>
         <v>8.0000000000000005E-9</v>
       </c>
       <c r="K15" s="32" t="str">
-        <f>IF($V15=TRUE,"NR",IF($U15=TRUE,"ND",IF($T15=TRUE,"D",S15)))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M15" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.999999992</v>
       </c>
       <c r="N15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.999999992</v>
       </c>
       <c r="O15" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.4000000000000003E-8</v>
       </c>
       <c r="P15" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.4000000000000003E-8</v>
       </c>
       <c r="Q15" s="9">
@@ -7809,15 +7744,15 @@
         <v>-I</v>
       </c>
       <c r="T15" s="9" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U15" s="9" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V15" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7847,27 +7782,27 @@
         <v>0</v>
       </c>
       <c r="J16" s="10">
-        <f>IF($V16=TRUE,0,IF($U16=TRUE,0,IF(H16="Ja",IF(ISNUMBER(I16),I16,"-"),IF(ISNUMBER(G16),G16,"-"))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K16" s="32" t="str">
-        <f>IF($V16=TRUE,"NR",IF($U16=TRUE,"ND",IF($T16=TRUE,"D",S16)))</f>
+        <f t="shared" si="1"/>
         <v>+III</v>
       </c>
       <c r="M16" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O16" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P16" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q16" s="9">
@@ -7883,15 +7818,15 @@
         <v>+III</v>
       </c>
       <c r="T16" s="9" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U16" s="9" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V16" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7921,27 +7856,27 @@
         <v>2.546E-5</v>
       </c>
       <c r="J17" s="10">
-        <f>IF($V17=TRUE,0,IF($U17=TRUE,0,IF(H17="Ja",IF(ISNUMBER(I17),I17,"-"),IF(ISNUMBER(G17),G17,"-"))))</f>
+        <f t="shared" si="0"/>
         <v>2.546E-5</v>
       </c>
       <c r="K17" s="32" t="str">
-        <f>IF($V17=TRUE,"NR",IF($U17=TRUE,"ND",IF($T17=TRUE,"D",S17)))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M17" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99997453999999997</v>
       </c>
       <c r="N17" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.99997453999999997</v>
       </c>
       <c r="O17" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7.6379999999999997E-5</v>
       </c>
       <c r="P17" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.6379999999999997E-5</v>
       </c>
       <c r="Q17" s="9">
@@ -7957,15 +7892,15 @@
         <v>-I</v>
       </c>
       <c r="T17" s="9" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U17" s="9" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V17" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7993,27 +7928,27 @@
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="10">
-        <f>IF($V18=TRUE,0,IF($U18=TRUE,0,IF(H18="Ja",IF(ISNUMBER(I18),I18,"-"),IF(ISNUMBER(G18),G18,"-"))))</f>
+        <f t="shared" si="0"/>
         <v>6.6600000000000003E-4</v>
       </c>
       <c r="K18" s="32" t="str">
-        <f>IF($V18=TRUE,"NR",IF($U18=TRUE,"ND",IF($T18=TRUE,"D",S18)))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M18" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99933399999999994</v>
       </c>
       <c r="N18" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.99933399999999994</v>
       </c>
       <c r="O18" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.9980000000000002E-3</v>
       </c>
       <c r="P18" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.9980000000000002E-3</v>
       </c>
       <c r="Q18" s="9">
@@ -8029,15 +7964,15 @@
         <v>-I</v>
       </c>
       <c r="T18" s="9" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U18" s="9" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V18" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8067,27 +8002,27 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="J19" s="10">
-        <f>IF($V19=TRUE,0,IF($U19=TRUE,0,IF(H19="Ja",IF(ISNUMBER(I19),I19,"-"),IF(ISNUMBER(G19),G19,"-"))))</f>
+        <f t="shared" si="0"/>
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="K19" s="32" t="str">
-        <f>IF($V19=TRUE,"NR",IF($U19=TRUE,"ND",IF($T19=TRUE,"D",S19)))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M19" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.99870000000000003</v>
       </c>
       <c r="N19" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.99870000000000003</v>
       </c>
       <c r="O19" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="P19" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="Q19" s="9">
@@ -8103,15 +8038,15 @@
         <v>-I</v>
       </c>
       <c r="T19" s="9" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U19" s="9" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V19" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8139,27 +8074,27 @@
       </c>
       <c r="I20" s="26"/>
       <c r="J20" s="10">
-        <f>IF($V20=TRUE,0,IF($U20=TRUE,0,IF(H20="Ja",IF(ISNUMBER(I20),I20,"-"),IF(ISNUMBER(G20),G20,"-"))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K20" s="32" t="str">
-        <f>IF($V20=TRUE,"NR",IF($U20=TRUE,"ND",IF($T20=TRUE,"D",S20)))</f>
+        <f t="shared" si="1"/>
         <v>+III</v>
       </c>
       <c r="M20" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N20" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O20" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P20" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q20" s="9">
@@ -8175,15 +8110,15 @@
         <v>+III</v>
       </c>
       <c r="T20" s="9" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U20" s="9" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V20" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8213,27 +8148,27 @@
         <v>0</v>
       </c>
       <c r="J21" s="10">
-        <f>IF($V21=TRUE,0,IF($U21=TRUE,0,IF(H21="Ja",IF(ISNUMBER(I21),I21,"-"),IF(ISNUMBER(G21),G21,"-"))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K21" s="32" t="str">
-        <f>IF($V21=TRUE,"NR",IF($U21=TRUE,"ND",IF($T21=TRUE,"D",S21)))</f>
+        <f t="shared" si="1"/>
         <v>+III</v>
       </c>
       <c r="M21" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N21" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O21" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P21" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q21" s="9">
@@ -8249,15 +8184,15 @@
         <v>+III</v>
       </c>
       <c r="T21" s="9" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U21" s="9" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V21" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8283,27 +8218,27 @@
       </c>
       <c r="I22" s="26"/>
       <c r="J22" s="10">
-        <f>IF($V22=TRUE,0,IF($U22=TRUE,0,IF(H22="Ja",IF(ISNUMBER(I22),I22,"-"),IF(ISNUMBER(G22),G22,"-"))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K22" s="32" t="str">
-        <f>IF($V22=TRUE,"NR",IF($U22=TRUE,"ND",IF($T22=TRUE,"D",S22)))</f>
+        <f t="shared" si="1"/>
         <v>NR</v>
       </c>
       <c r="M22" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N22" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O22" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P22" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q22" s="9">
@@ -8319,15 +8254,15 @@
         <v>+III</v>
       </c>
       <c r="T22" s="9" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U22" s="9" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V22" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -8471,23 +8406,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11:G28">
-    <cfRule type="expression" dxfId="46" priority="5">
+    <cfRule type="expression" dxfId="37" priority="5">
       <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I28">
-    <cfRule type="expression" dxfId="45" priority="4">
+    <cfRule type="expression" dxfId="36" priority="4">
       <formula>IF($H11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K28">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8744,23 +8679,23 @@
       </c>
       <c r="I11" s="25"/>
       <c r="J11" s="5">
-        <f>IF($V11=TRUE,0,IF($U11=TRUE,0,IF(H11="Ja",IF(ISNUMBER(I11),I11,"-"),IF(ISNUMBER(G11),G11,"-"))))</f>
+        <f t="shared" ref="J11:J22" si="0">IF($V11=TRUE,0,IF($U11=TRUE,0,IF(H11="Ja",IF(ISNUMBER(I11),I11,"-"),IF(ISNUMBER(G11),G11,"-"))))</f>
         <v>0</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f>IF($V11=TRUE,"NR",IF($U11=TRUE,"ND",IF($T11=TRUE,"D",S11)))</f>
+        <f t="shared" ref="K11:K22" si="1">IF($V11=TRUE,"NR",IF($U11=TRUE,"ND",IF($T11=TRUE,"D",S11)))</f>
         <v>NR</v>
       </c>
       <c r="M11" s="31">
-        <f t="shared" ref="M11" si="0">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <f t="shared" ref="M11" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" ref="N11" si="1">IF(J11="-",1,M11)</f>
+        <f t="shared" ref="N11" si="3">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" ref="O11" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <f t="shared" ref="O11" si="4">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P11" s="10">
@@ -8814,27 +8749,27 @@
       </c>
       <c r="I12" s="26"/>
       <c r="J12" s="10">
-        <f>IF($V12=TRUE,0,IF($U12=TRUE,0,IF(H12="Ja",IF(ISNUMBER(I12),I12,"-"),IF(ISNUMBER(G12),G12,"-"))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K12" s="32" t="str">
-        <f>IF($V12=TRUE,"NR",IF($U12=TRUE,"ND",IF($T12=TRUE,"D",S12)))</f>
+        <f t="shared" si="1"/>
         <v>ND</v>
       </c>
       <c r="M12" s="31">
-        <f t="shared" ref="M12:M22" si="3">IF(AND(F12="Geen faalkans",H12="Nee"),1,1-J12)</f>
+        <f t="shared" ref="M12:M22" si="5">IF(AND(F12="Geen faalkans",H12="Nee"),1,1-J12)</f>
         <v>1</v>
       </c>
       <c r="N12" s="10">
-        <f t="shared" ref="N12:N22" si="4">IF(J12="-",1,M12)</f>
+        <f t="shared" ref="N12:N22" si="6">IF(J12="-",1,M12)</f>
         <v>1</v>
       </c>
       <c r="O12" s="10">
-        <f t="shared" ref="O12:O22" si="5">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
+        <f t="shared" ref="O12:O22" si="7">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" ref="P12:P22" si="6">IF(J12="-",0,O12)</f>
+        <f t="shared" ref="P12:P22" si="8">IF(J12="-",0,O12)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="9">
@@ -8850,15 +8785,15 @@
         <v>+III</v>
       </c>
       <c r="T12" s="9" t="b">
-        <f t="shared" ref="T12:T22" si="7">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
+        <f t="shared" ref="T12:T22" si="9">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
       <c r="U12" s="9" t="b">
-        <f t="shared" ref="U12:U22" si="8">IF($E12="Ja",IF($H12="Nee",NOT(ISNUMBER($G12)),FALSE),FALSE)</f>
+        <f t="shared" ref="U12:U22" si="10">IF($E12="Ja",IF($H12="Nee",NOT(ISNUMBER($G12)),FALSE),FALSE)</f>
         <v>1</v>
       </c>
       <c r="V12" s="12" t="b">
-        <f t="shared" ref="V12:V22" si="9">IF(E12="Nee",TRUE,FALSE)</f>
+        <f t="shared" ref="V12:V22" si="11">IF(E12="Nee",TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -8888,27 +8823,27 @@
         <v>0</v>
       </c>
       <c r="J13" s="10">
-        <f>IF($V13=TRUE,0,IF($U13=TRUE,0,IF(H13="Ja",IF(ISNUMBER(I13),I13,"-"),IF(ISNUMBER(G13),G13,"-"))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K13" s="32" t="str">
-        <f>IF($V13=TRUE,"NR",IF($U13=TRUE,"ND",IF($T13=TRUE,"D",S13)))</f>
+        <f t="shared" si="1"/>
         <v>+III</v>
       </c>
       <c r="M13" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P13" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q13" s="9">
@@ -8924,15 +8859,15 @@
         <v>+III</v>
       </c>
       <c r="T13" s="9" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U13" s="9" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V13" s="12" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -8960,27 +8895,27 @@
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="10">
-        <f>IF($V14=TRUE,0,IF($U14=TRUE,0,IF(H14="Ja",IF(ISNUMBER(I14),I14,"-"),IF(ISNUMBER(G14),G14,"-"))))</f>
+        <f t="shared" si="0"/>
         <v>2.2800000000000001E-4</v>
       </c>
       <c r="K14" s="32" t="str">
-        <f>IF($V14=TRUE,"NR",IF($U14=TRUE,"ND",IF($T14=TRUE,"D",S14)))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M14" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.99977199999999999</v>
       </c>
       <c r="N14" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.99977199999999999</v>
       </c>
       <c r="O14" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.2800000000000001E-4</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.2800000000000001E-4</v>
       </c>
       <c r="Q14" s="9">
@@ -8996,15 +8931,15 @@
         <v>-I</v>
       </c>
       <c r="T14" s="9" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U14" s="9" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V14" s="12" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -9034,27 +8969,27 @@
         <v>3.2699999999999999E-3</v>
       </c>
       <c r="J15" s="10">
-        <f>IF($V15=TRUE,0,IF($U15=TRUE,0,IF(H15="Ja",IF(ISNUMBER(I15),I15,"-"),IF(ISNUMBER(G15),G15,"-"))))</f>
+        <f t="shared" si="0"/>
         <v>3.2699999999999999E-3</v>
       </c>
       <c r="K15" s="32" t="str">
-        <f>IF($V15=TRUE,"NR",IF($U15=TRUE,"ND",IF($T15=TRUE,"D",S15)))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M15" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.99673</v>
       </c>
       <c r="N15" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.99673</v>
       </c>
       <c r="O15" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.2699999999999999E-3</v>
       </c>
       <c r="P15" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.2699999999999999E-3</v>
       </c>
       <c r="Q15" s="9">
@@ -9070,15 +9005,15 @@
         <v>-I</v>
       </c>
       <c r="T15" s="9" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U15" s="9" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V15" s="12" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -9104,27 +9039,27 @@
       </c>
       <c r="I16" s="26"/>
       <c r="J16" s="10">
-        <f>IF($V16=TRUE,0,IF($U16=TRUE,0,IF(H16="Ja",IF(ISNUMBER(I16),I16,"-"),IF(ISNUMBER(G16),G16,"-"))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K16" s="32" t="str">
-        <f>IF($V16=TRUE,"NR",IF($U16=TRUE,"ND",IF($T16=TRUE,"D",S16)))</f>
+        <f t="shared" si="1"/>
         <v>NR</v>
       </c>
       <c r="M16" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O16" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P16" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q16" s="9">
@@ -9140,15 +9075,15 @@
         <v>+III</v>
       </c>
       <c r="T16" s="9" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U16" s="9" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V16" s="12" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -9174,27 +9109,27 @@
       </c>
       <c r="I17" s="26"/>
       <c r="J17" s="10">
-        <f>IF($V17=TRUE,0,IF($U17=TRUE,0,IF(H17="Ja",IF(ISNUMBER(I17),I17,"-"),IF(ISNUMBER(G17),G17,"-"))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K17" s="32" t="str">
-        <f>IF($V17=TRUE,"NR",IF($U17=TRUE,"ND",IF($T17=TRUE,"D",S17)))</f>
+        <f t="shared" si="1"/>
         <v>NR</v>
       </c>
       <c r="M17" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N17" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O17" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P17" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q17" s="9">
@@ -9210,15 +9145,15 @@
         <v>+III</v>
       </c>
       <c r="T17" s="9" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U17" s="9" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V17" s="12" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -9246,27 +9181,27 @@
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="10">
-        <f>IF($V18=TRUE,0,IF($U18=TRUE,0,IF(H18="Ja",IF(ISNUMBER(I18),I18,"-"),IF(ISNUMBER(G18),G18,"-"))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K18" s="32" t="str">
-        <f>IF($V18=TRUE,"NR",IF($U18=TRUE,"ND",IF($T18=TRUE,"D",S18)))</f>
+        <f t="shared" si="1"/>
         <v>+III</v>
       </c>
       <c r="M18" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N18" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O18" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P18" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q18" s="9">
@@ -9282,15 +9217,15 @@
         <v>+III</v>
       </c>
       <c r="T18" s="9" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U18" s="9" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V18" s="12" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -9318,27 +9253,27 @@
       </c>
       <c r="I19" s="26"/>
       <c r="J19" s="10" t="str">
-        <f>IF($V19=TRUE,0,IF($U19=TRUE,0,IF(H19="Ja",IF(ISNUMBER(I19),I19,"-"),IF(ISNUMBER(G19),G19,"-"))))</f>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="K19" s="32" t="str">
-        <f>IF($V19=TRUE,"NR",IF($U19=TRUE,"ND",IF($T19=TRUE,"D",S19)))</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="M19" s="31" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N19" s="10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="10" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
+      <c r="N19" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="P19" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q19" s="9">
@@ -9354,15 +9289,15 @@
         <v>+III</v>
       </c>
       <c r="T19" s="9" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="U19" s="9" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V19" s="12" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -9390,27 +9325,27 @@
       </c>
       <c r="I20" s="26"/>
       <c r="J20" s="10">
-        <f>IF($V20=TRUE,0,IF($U20=TRUE,0,IF(H20="Ja",IF(ISNUMBER(I20),I20,"-"),IF(ISNUMBER(G20),G20,"-"))))</f>
+        <f t="shared" si="0"/>
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="K20" s="32" t="str">
-        <f>IF($V20=TRUE,"NR",IF($U20=TRUE,"ND",IF($T20=TRUE,"D",S20)))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M20" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.99999800000000005</v>
       </c>
       <c r="N20" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.99999800000000005</v>
       </c>
       <c r="O20" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="P20" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="Q20" s="9">
@@ -9426,15 +9361,15 @@
         <v>-I</v>
       </c>
       <c r="T20" s="9" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U20" s="9" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V20" s="12" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -9464,27 +9399,27 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J21" s="10">
-        <f>IF($V21=TRUE,0,IF($U21=TRUE,0,IF(H21="Ja",IF(ISNUMBER(I21),I21,"-"),IF(ISNUMBER(G21),G21,"-"))))</f>
+        <f t="shared" si="0"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K21" s="32" t="str">
-        <f>IF($V21=TRUE,"NR",IF($U21=TRUE,"ND",IF($T21=TRUE,"D",S21)))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M21" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.99950000000000006</v>
       </c>
       <c r="N21" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.99950000000000006</v>
       </c>
       <c r="O21" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="P21" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="Q21" s="9">
@@ -9500,15 +9435,15 @@
         <v>-I</v>
       </c>
       <c r="T21" s="9" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U21" s="9" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V21" s="12" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -9536,27 +9471,27 @@
       </c>
       <c r="I22" s="26"/>
       <c r="J22" s="10">
-        <f>IF($V22=TRUE,0,IF($U22=TRUE,0,IF(H22="Ja",IF(ISNUMBER(I22),I22,"-"),IF(ISNUMBER(G22),G22,"-"))))</f>
+        <f t="shared" si="0"/>
         <v>2.0000000000000001E-9</v>
       </c>
       <c r="K22" s="32" t="str">
-        <f>IF($V22=TRUE,"NR",IF($U22=TRUE,"ND",IF($T22=TRUE,"D",S22)))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M22" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.99999999799999995</v>
       </c>
       <c r="N22" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.99999999799999995</v>
       </c>
       <c r="O22" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000001E-9</v>
       </c>
       <c r="P22" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000001E-9</v>
       </c>
       <c r="Q22" s="9">
@@ -9572,15 +9507,15 @@
         <v>-I</v>
       </c>
       <c r="T22" s="9" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U22" s="9" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V22" s="12" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -9724,23 +9659,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11:G28">
-    <cfRule type="expression" dxfId="35" priority="5">
+    <cfRule type="expression" dxfId="26" priority="5">
       <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I28">
-    <cfRule type="expression" dxfId="34" priority="4">
+    <cfRule type="expression" dxfId="25" priority="4">
       <formula>IF($H11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K28">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10962,23 +10897,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11:G15 G17:G27">
-    <cfRule type="expression" dxfId="24" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I27">
-    <cfRule type="expression" dxfId="23" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>IF($H11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K27">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
